--- a/Cost of capital.xlsx
+++ b/Cost of capital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myresources.deloitte.com/personal/vserban_deloittece_com/Documents/Desktop/socep-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vserban\OneDrive - Deloitte (O365D)\Desktop\socep-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC10483E895F539A5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86A436A-771F-4DC8-B9E2-2571E3EE081C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA348B0-23BF-44C0-9B79-1780FAA0BBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="HTML_PathFileMac" hidden="1">"Macintosh HD:HomePageStuff:New_Home_Page:datafile:ctryprem.html"</definedName>
     <definedName name="HTML_Title" hidden="1">"Country Risk Premiums"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>BETA</t>
   </si>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t xml:space="preserve">10y bond yield ron </t>
+  </si>
+  <si>
+    <t>Cost of debt</t>
+  </si>
+  <si>
+    <t>total capitaluri propii</t>
+  </si>
+  <si>
+    <t>total debt</t>
+  </si>
+  <si>
+    <t>total kp</t>
+  </si>
+  <si>
+    <t>debt weight</t>
+  </si>
+  <si>
+    <t>equity weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Capital </t>
   </si>
 </sst>
 </file>
@@ -662,9 +683,6 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,6 +698,9 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,13 +1191,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1208,6 +1222,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1277,10 +1298,10 @@
       <sheetName val="Data Update Sequence"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="7">
           <cell r="D7">
@@ -1288,9 +1309,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="A2" t="str">
@@ -7083,10 +7104,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16">
         <row r="162">
           <cell r="A162" t="str">
@@ -7446,14 +7467,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74DA766C-1CB2-4AC3-B9C5-0BAB664E35FE}" name="Table1" displayName="Table1" ref="A7:I164" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74DA766C-1CB2-4AC3-B9C5-0BAB664E35FE}" name="Table1" displayName="Table1" ref="A7:I164" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A7:I164" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
@@ -7471,10 +7492,10 @@
     <tableColumn id="3" xr3:uid="{1A467440-767F-44E7-B4A4-6CFB0E87BDB5}" name="Moody's rating" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(A8,'[1]Sovereign Ratings (Moody''s,S&amp;P)'!$A$2:$D$158,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7A4FAD00-65CF-4CD0-9E0C-B00B711386ED}" name="Rating-based Default Spread" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{7A4FAD00-65CF-4CD0-9E0C-B00B711386ED}" name="Rating-based Default Spread" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(C8,$J$9:$K$31,2,FALSE)/10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9870D7ED-C9BF-468A-AB52-003A044AC91B}" name="Total Equity Risk Premium" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{9870D7ED-C9BF-468A-AB52-003A044AC91B}" name="Total Equity Risk Premium" dataDxfId="11">
       <calculatedColumnFormula>$E$3+F8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{553B4EE7-3366-45E2-919C-1852F0629850}" name="Country Risk Premium" dataDxfId="10">
@@ -7504,13 +7525,13 @@
     <tableColumn id="2" xr3:uid="{FD9F9FB3-828C-4072-A8E9-681280F2722C}" name="PRS Composite Risk Score" dataDxfId="3">
       <calculatedColumnFormula>'[1]PRS Worksheet'!B162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07695F3E-203F-49DF-A9B7-C6AA5F00A257}" name="ERP" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{07695F3E-203F-49DF-A9B7-C6AA5F00A257}" name="ERP" dataDxfId="2">
       <calculatedColumnFormula>'[1]PRS Worksheet'!E162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6E6514DB-E4A9-4CFB-A17E-796965EEFBED}" name="CRP" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{6E6514DB-E4A9-4CFB-A17E-796965EEFBED}" name="CRP" dataDxfId="1">
       <calculatedColumnFormula>'[1]PRS Worksheet'!G162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9450A884-6207-4322-9CDA-4B5BF216DD8B}" name="Default Spread" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{9450A884-6207-4322-9CDA-4B5BF216DD8B}" name="Default Spread" dataDxfId="0">
       <calculatedColumnFormula>'[1]PRS Worksheet'!D162</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7798,8 +7819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53E2D9-6920-4069-A268-808E9C4AFD22}">
   <dimension ref="A1:N262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11495,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24013C9-F636-40A0-B0F2-33C2B807FC56}">
   <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
@@ -11514,38 +11535,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>44377</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
@@ -11627,15 +11648,15 @@
         <v>Aa2</v>
       </c>
       <c r="D8" s="27">
-        <f>VLOOKUP(C8,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" ref="D8:D39" si="0">VLOOKUP(C8,$J$9:$K$31,2,FALSE)/10000</f>
         <v>4.8535510480564323E-3</v>
       </c>
       <c r="E8" s="27">
-        <f>$E$3+F8</f>
+        <f t="shared" ref="E8:E39" si="1">$E$3+F8</f>
         <v>4.9402479639183504E-2</v>
       </c>
       <c r="F8" s="26">
-        <f>IF($E$4="Yes",D8*$E$5,D8)</f>
+        <f t="shared" ref="F8:F39" si="2">IF($E$4="Yes",D8*$E$5,D8)</f>
         <v>7.3024796391835027E-3</v>
       </c>
       <c r="G8" s="25">
@@ -11643,11 +11664,11 @@
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="H8" s="26">
-        <f>IF(I8="NA","NA",$E$3+I8)</f>
+        <f t="shared" ref="H8:H39" si="3">IF(I8="NA","NA",$E$3+I8)</f>
         <v>4.9773277934255865E-2</v>
       </c>
       <c r="I8" s="31">
-        <f>IF(G8="NA","NA",G8*$E$5)</f>
+        <f t="shared" ref="I8:I39" si="4">IF(G8="NA","NA",G8*$E$5)</f>
         <v>7.673277934255868E-3</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -11671,15 +11692,15 @@
         <v>Ba3</v>
       </c>
       <c r="D9" s="27">
-        <f>VLOOKUP(C9,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E9" s="27">
-        <f>$E$3+F9</f>
+        <f t="shared" si="1"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F9" s="26">
-        <f>IF($E$4="Yes",D9*$E$5,D9)</f>
+        <f t="shared" si="2"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G9" s="25" t="str">
@@ -11687,18 +11708,18 @@
         <v>NA</v>
       </c>
       <c r="H9" s="26" t="str">
-        <f>IF(I9="NA","NA",$E$3+I9)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I9" s="31" t="str">
-        <f>IF(G9="NA","NA",G9*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="33">
-        <f>C190</f>
+        <f t="shared" ref="K9:K30" si="5">C190</f>
         <v>69.336443543663336</v>
       </c>
     </row>
@@ -11716,15 +11737,15 @@
         <v>Baa1</v>
       </c>
       <c r="D10" s="27">
-        <f>VLOOKUP(C10,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E10" s="27">
-        <f>$E$3+F10</f>
+        <f t="shared" si="1"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F10" s="26">
-        <f>IF($E$4="Yes",D10*$E$5,D10)</f>
+        <f t="shared" si="2"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G10" s="25" t="str">
@@ -11732,18 +11753,18 @@
         <v>NA</v>
       </c>
       <c r="H10" s="26" t="str">
-        <f>IF(I10="NA","NA",$E$3+I10)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I10" s="31" t="str">
-        <f>IF(G10="NA","NA",G10*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="33">
-        <f>C191</f>
+        <f t="shared" si="5"/>
         <v>83.20373225239598</v>
       </c>
     </row>
@@ -11761,15 +11782,15 @@
         <v>B3</v>
       </c>
       <c r="D11" s="27">
-        <f>VLOOKUP(C11,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E11" s="27">
-        <f>$E$3+F11</f>
+        <f t="shared" si="1"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F11" s="26">
-        <f>IF($E$4="Yes",D11*$E$5,D11)</f>
+        <f t="shared" si="2"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G11" s="25">
@@ -11777,18 +11798,18 @@
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="H11" s="26">
-        <f>IF(I11="NA","NA",$E$3+I11)</f>
+        <f t="shared" si="3"/>
         <v>0.14726904462833043</v>
       </c>
       <c r="I11" s="31">
-        <f>IF(G11="NA","NA",G11*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>0.10516904462833043</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="33">
-        <f>C192</f>
+        <f t="shared" si="5"/>
         <v>117.87195402422765</v>
       </c>
     </row>
@@ -11806,15 +11827,15 @@
         <v>Caa3</v>
       </c>
       <c r="D12" s="27">
-        <f>VLOOKUP(C12,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>9.8342189092762475E-2</v>
       </c>
       <c r="E12" s="27">
-        <f>$E$3+F12</f>
+        <f t="shared" si="1"/>
         <v>0.1900621469748848</v>
       </c>
       <c r="F12" s="26">
-        <f>IF($E$4="Yes",D12*$E$5,D12)</f>
+        <f t="shared" si="2"/>
         <v>0.1479621469748848</v>
       </c>
       <c r="G12" s="25" t="str">
@@ -11822,18 +11843,18 @@
         <v>NA</v>
       </c>
       <c r="H12" s="26" t="str">
-        <f>IF(I12="NA","NA",$E$3+I12)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I12" s="31" t="str">
-        <f>IF(G12="NA","NA",G12*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="33">
-        <f>C193</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -11851,15 +11872,15 @@
         <v>Ba3</v>
       </c>
       <c r="D13" s="27">
-        <f>VLOOKUP(C13,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E13" s="27">
-        <f>$E$3+F13</f>
+        <f t="shared" si="1"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F13" s="26">
-        <f>IF($E$4="Yes",D13*$E$5,D13)</f>
+        <f t="shared" si="2"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G13" s="25" t="str">
@@ -11867,18 +11888,18 @@
         <v>NA</v>
       </c>
       <c r="H13" s="26" t="str">
-        <f>IF(I13="NA","NA",$E$3+I13)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I13" s="31" t="str">
-        <f>IF(G13="NA","NA",G13*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="33">
-        <f>C194</f>
+        <f t="shared" si="5"/>
         <v>48.535510480564319</v>
       </c>
     </row>
@@ -11896,15 +11917,15 @@
         <v>Baa3</v>
       </c>
       <c r="D14" s="27">
-        <f>VLOOKUP(C14,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E14" s="27">
-        <f>$E$3+F14</f>
+        <f t="shared" si="1"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F14" s="26">
-        <f>IF($E$4="Yes",D14*$E$5,D14)</f>
+        <f t="shared" si="2"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G14" s="25" t="str">
@@ -11912,18 +11933,18 @@
         <v>NA</v>
       </c>
       <c r="H14" s="26" t="str">
-        <f>IF(I14="NA","NA",$E$3+I14)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I14" s="31" t="str">
-        <f>IF(G14="NA","NA",G14*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="33">
-        <f>C195</f>
+        <f t="shared" si="5"/>
         <v>58.935977012113824</v>
       </c>
     </row>
@@ -11941,15 +11962,15 @@
         <v>Aaa</v>
       </c>
       <c r="D15" s="27">
-        <f>VLOOKUP(C15,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="27">
-        <f>$E$3+F15</f>
+        <f t="shared" si="1"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F15" s="26">
-        <f>IF($E$4="Yes",D15*$E$5,D15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="25">
@@ -11957,18 +11978,18 @@
         <v>1.0000000000000005E-4</v>
       </c>
       <c r="H15" s="26">
-        <f>IF(I15="NA","NA",$E$3+I15)</f>
+        <f t="shared" si="3"/>
         <v>4.2250456430083447E-2</v>
       </c>
       <c r="I15" s="31">
-        <f>IF(G15="NA","NA",G15*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>1.5045643008344847E-4</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="33">
-        <f>C196</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11986,15 +12007,15 @@
         <v>Aa1</v>
       </c>
       <c r="D16" s="27">
-        <f>VLOOKUP(C16,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E16" s="27">
-        <f>$E$3+F16</f>
+        <f t="shared" si="1"/>
         <v>4.6162323612253107E-2</v>
       </c>
       <c r="F16" s="26">
-        <f>IF($E$4="Yes",D16*$E$5,D16)</f>
+        <f t="shared" si="2"/>
         <v>4.0623236122531072E-3</v>
       </c>
       <c r="G16" s="25">
@@ -12002,18 +12023,18 @@
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="H16" s="26">
-        <f>IF(I16="NA","NA",$E$3+I16)</f>
+        <f t="shared" si="3"/>
         <v>4.4356846451251722E-2</v>
       </c>
       <c r="I16" s="31">
-        <f>IF(G16="NA","NA",G16*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>2.2568464512517264E-3</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="33">
-        <f>C197</f>
+        <f t="shared" si="5"/>
         <v>442.59763128705077</v>
       </c>
     </row>
@@ -12031,15 +12052,15 @@
         <v>Baa3</v>
       </c>
       <c r="D17" s="27">
-        <f>VLOOKUP(C17,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E17" s="27">
-        <f>$E$3+F17</f>
+        <f t="shared" si="1"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F17" s="26">
-        <f>IF($E$4="Yes",D17*$E$5,D17)</f>
+        <f t="shared" si="2"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G17" s="25" t="str">
@@ -12047,18 +12068,18 @@
         <v>NA</v>
       </c>
       <c r="H17" s="26" t="str">
-        <f>IF(I17="NA","NA",$E$3+I17)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I17" s="31" t="str">
-        <f>IF(G17="NA","NA",G17*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="33">
-        <f>C198</f>
+        <f t="shared" si="5"/>
         <v>540.82425964057381</v>
       </c>
     </row>
@@ -12076,15 +12097,15 @@
         <v>B1</v>
       </c>
       <c r="D18" s="27">
-        <f>VLOOKUP(C18,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E18" s="27">
-        <f>$E$3+F18</f>
+        <f t="shared" si="1"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F18" s="26">
-        <f>IF($E$4="Yes",D18*$E$5,D18)</f>
+        <f t="shared" si="2"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G18" s="25" t="str">
@@ -12092,18 +12113,18 @@
         <v>NA</v>
       </c>
       <c r="H18" s="26" t="str">
-        <f>IF(I18="NA","NA",$E$3+I18)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I18" s="31" t="str">
-        <f>IF(G18="NA","NA",G18*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="33">
-        <f>C199</f>
+        <f t="shared" si="5"/>
         <v>639.0508879940968</v>
       </c>
     </row>
@@ -12121,15 +12142,15 @@
         <v>B2</v>
       </c>
       <c r="D19" s="27">
-        <f>VLOOKUP(C19,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E19" s="27">
-        <f>$E$3+F19</f>
+        <f t="shared" si="1"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F19" s="26">
-        <f>IF($E$4="Yes",D19*$E$5,D19)</f>
+        <f t="shared" si="2"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G19" s="25">
@@ -12137,18 +12158,18 @@
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="H19" s="26">
-        <f>IF(I19="NA","NA",$E$3+I19)</f>
+        <f t="shared" si="3"/>
         <v>8.1519584681863488E-2</v>
       </c>
       <c r="I19" s="31">
-        <f>IF(G19="NA","NA",G19*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>3.9419584681863483E-2</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="33">
-        <f>C200</f>
+        <f t="shared" si="5"/>
         <v>246.14437458000481</v>
       </c>
     </row>
@@ -12166,15 +12187,15 @@
         <v>B2</v>
       </c>
       <c r="D20" s="27">
-        <f>VLOOKUP(C20,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E20" s="27">
-        <f>$E$3+F20</f>
+        <f t="shared" si="1"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F20" s="26">
-        <f>IF($E$4="Yes",D20*$E$5,D20)</f>
+        <f t="shared" si="2"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G20" s="25" t="str">
@@ -12182,18 +12203,18 @@
         <v>NA</v>
       </c>
       <c r="H20" s="26" t="str">
-        <f>IF(I20="NA","NA",$E$3+I20)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I20" s="31" t="str">
-        <f>IF(G20="NA","NA",G20*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="33">
-        <f>C201</f>
+        <f t="shared" si="5"/>
         <v>295.83549245296348</v>
       </c>
     </row>
@@ -12211,15 +12232,15 @@
         <v>B2</v>
       </c>
       <c r="D21" s="27">
-        <f>VLOOKUP(C21,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E21" s="27">
-        <f>$E$3+F21</f>
+        <f t="shared" si="1"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F21" s="26">
-        <f>IF($E$4="Yes",D21*$E$5,D21)</f>
+        <f t="shared" si="2"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G21" s="25" t="str">
@@ -12227,18 +12248,18 @@
         <v>NA</v>
       </c>
       <c r="H21" s="26" t="str">
-        <f>IF(I21="NA","NA",$E$3+I21)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I21" s="31" t="str">
-        <f>IF(G21="NA","NA",G21*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K21" s="33">
-        <f>C202</f>
+        <f t="shared" si="5"/>
         <v>353.61586207268289</v>
       </c>
     </row>
@@ -12256,15 +12277,15 @@
         <v>C</v>
       </c>
       <c r="D22" s="27">
-        <f>VLOOKUP(C22,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E22" s="27">
-        <f>$E$3+F22</f>
+        <f t="shared" si="1"/>
         <v>0.30539875264603467</v>
       </c>
       <c r="F22" s="26">
-        <f>IF($E$4="Yes",D22*$E$5,D22)</f>
+        <f t="shared" si="2"/>
         <v>0.26329875264603469</v>
       </c>
       <c r="G22" s="25" t="str">
@@ -12272,18 +12293,18 @@
         <v>NA</v>
       </c>
       <c r="H22" s="26" t="str">
-        <f>IF(I22="NA","NA",$E$3+I22)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I22" s="31" t="str">
-        <f>IF(G22="NA","NA",G22*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="33">
-        <f>C203</f>
+        <f t="shared" si="5"/>
         <v>157.16260536563684</v>
       </c>
     </row>
@@ -12301,15 +12322,15 @@
         <v>Aa3</v>
       </c>
       <c r="D23" s="27">
-        <f>VLOOKUP(C23,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E23" s="27">
-        <f>$E$3+F23</f>
+        <f t="shared" si="1"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F23" s="26">
-        <f>IF($E$4="Yes",D23*$E$5,D23)</f>
+        <f t="shared" si="2"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G23" s="25">
@@ -12317,18 +12338,18 @@
         <v>3.3E-3</v>
       </c>
       <c r="H23" s="26">
-        <f>IF(I23="NA","NA",$E$3+I23)</f>
+        <f t="shared" si="3"/>
         <v>4.7065062192753797E-2</v>
       </c>
       <c r="I23" s="31">
-        <f>IF(G23="NA","NA",G23*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>4.9650621927537974E-3</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="33">
-        <f>C204</f>
+        <f t="shared" si="5"/>
         <v>187.20839756789098</v>
       </c>
     </row>
@@ -12346,15 +12367,15 @@
         <v>Caa1</v>
       </c>
       <c r="D24" s="27">
-        <f>VLOOKUP(C24,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E24" s="27">
-        <f>$E$3+F24</f>
+        <f t="shared" si="1"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F24" s="26">
-        <f>IF($E$4="Yes",D24*$E$5,D24)</f>
+        <f t="shared" si="2"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G24" s="25" t="str">
@@ -12362,18 +12383,18 @@
         <v>NA</v>
       </c>
       <c r="H24" s="26" t="str">
-        <f>IF(I24="NA","NA",$E$3+I24)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I24" s="31" t="str">
-        <f>IF(G24="NA","NA",G24*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="33">
-        <f>C205</f>
+        <f t="shared" si="5"/>
         <v>216.09858237775069</v>
       </c>
     </row>
@@ -12391,15 +12412,15 @@
         <v>B1</v>
       </c>
       <c r="D25" s="27">
-        <f>VLOOKUP(C25,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E25" s="27">
-        <f>$E$3+F25</f>
+        <f t="shared" si="1"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F25" s="26">
-        <f>IF($E$4="Yes",D25*$E$5,D25)</f>
+        <f t="shared" si="2"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G25" s="25" t="str">
@@ -12407,18 +12428,18 @@
         <v>NA</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f>IF(I25="NA","NA",$E$3+I25)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I25" s="31" t="str">
-        <f>IF(G25="NA","NA",G25*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="33">
-        <f>C206</f>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
     </row>
@@ -12436,15 +12457,15 @@
         <v>A2</v>
       </c>
       <c r="D26" s="27">
-        <f>VLOOKUP(C26,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>8.3203732252395985E-3</v>
       </c>
       <c r="E26" s="27">
-        <f>$E$3+F26</f>
+        <f t="shared" si="1"/>
         <v>5.4618536524314573E-2</v>
       </c>
       <c r="F26" s="26">
-        <f>IF($E$4="Yes",D26*$E$5,D26)</f>
+        <f t="shared" si="2"/>
         <v>1.2518536524314576E-2</v>
       </c>
       <c r="G26" s="25" t="str">
@@ -12452,18 +12473,18 @@
         <v>NA</v>
       </c>
       <c r="H26" s="26" t="str">
-        <f>IF(I26="NA","NA",$E$3+I26)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I26" s="31" t="str">
-        <f>IF(G26="NA","NA",G26*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="33">
-        <f>C207</f>
+        <f t="shared" si="5"/>
         <v>1179.8751476346708</v>
       </c>
     </row>
@@ -12481,15 +12502,15 @@
         <v>Ca</v>
       </c>
       <c r="D27" s="27">
-        <f>VLOOKUP(C27,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>0.11798751476346708</v>
       </c>
       <c r="E27" s="27">
-        <f>$E$3+F27</f>
+        <f t="shared" si="1"/>
         <v>0.21961980265729422</v>
       </c>
       <c r="F27" s="26">
-        <f>IF($E$4="Yes",D27*$E$5,D27)</f>
+        <f t="shared" si="2"/>
         <v>0.17751980265729422</v>
       </c>
       <c r="G27" s="25" t="str">
@@ -12497,11 +12518,11 @@
         <v>NA</v>
       </c>
       <c r="H27" s="26" t="str">
-        <f>IF(I27="NA","NA",$E$3+I27)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I27" s="31" t="str">
-        <f>IF(G27="NA","NA",G27*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J27" s="7" t="str">
@@ -12509,7 +12530,7 @@
         <v>Caa1</v>
       </c>
       <c r="K27" s="33">
-        <f>C208</f>
+        <f t="shared" si="5"/>
         <v>737.27751634761989</v>
       </c>
     </row>
@@ -12527,15 +12548,15 @@
         <v>B3</v>
       </c>
       <c r="D28" s="27">
-        <f>VLOOKUP(C28,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E28" s="27">
-        <f>$E$3+F28</f>
+        <f t="shared" si="1"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F28" s="26">
-        <f>IF($E$4="Yes",D28*$E$5,D28)</f>
+        <f t="shared" si="2"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G28" s="25" t="str">
@@ -12543,11 +12564,11 @@
         <v>NA</v>
       </c>
       <c r="H28" s="26" t="str">
-        <f>IF(I28="NA","NA",$E$3+I28)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I28" s="31" t="str">
-        <f>IF(G28="NA","NA",G28*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J28" s="7" t="str">
@@ -12555,7 +12576,7 @@
         <v>Caa2</v>
       </c>
       <c r="K28" s="33">
-        <f>C209</f>
+        <f t="shared" si="5"/>
         <v>885.19526257410155</v>
       </c>
     </row>
@@ -12573,15 +12594,15 @@
         <v>A3</v>
       </c>
       <c r="D29" s="27">
-        <f>VLOOKUP(C29,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E29" s="27">
-        <f>$E$3+F29</f>
+        <f t="shared" si="1"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F29" s="26">
-        <f>IF($E$4="Yes",D29*$E$5,D29)</f>
+        <f t="shared" si="2"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G29" s="25" t="str">
@@ -12589,11 +12610,11 @@
         <v>NA</v>
       </c>
       <c r="H29" s="26" t="str">
-        <f>IF(I29="NA","NA",$E$3+I29)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I29" s="31" t="str">
-        <f>IF(G29="NA","NA",G29*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J29" s="7" t="str">
@@ -12601,7 +12622,7 @@
         <v>Caa3</v>
       </c>
       <c r="K29" s="33">
-        <f>C210</f>
+        <f t="shared" si="5"/>
         <v>983.42189092762476</v>
       </c>
     </row>
@@ -12619,15 +12640,15 @@
         <v>Ba1</v>
       </c>
       <c r="D30" s="27">
-        <f>VLOOKUP(C30,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>2.4614437458000481E-2</v>
       </c>
       <c r="E30" s="27">
-        <f>$E$3+F30</f>
+        <f t="shared" si="1"/>
         <v>7.913400388443062E-2</v>
       </c>
       <c r="F30" s="26">
-        <f>IF($E$4="Yes",D30*$E$5,D30)</f>
+        <f t="shared" si="2"/>
         <v>3.7034003884430629E-2</v>
       </c>
       <c r="G30" s="25">
@@ -12635,18 +12656,18 @@
         <v>2.3799999999999998E-2</v>
       </c>
       <c r="H30" s="26">
-        <f>IF(I30="NA","NA",$E$3+I30)</f>
+        <f t="shared" si="3"/>
         <v>7.7908630359860717E-2</v>
       </c>
       <c r="I30" s="31">
-        <f>IF(G30="NA","NA",G30*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>3.5808630359860719E-2</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K30" s="32" t="str">
-        <f>C211</f>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
     </row>
@@ -12664,15 +12685,15 @@
         <v>Baa1</v>
       </c>
       <c r="D31" s="27">
-        <f>VLOOKUP(C31,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E31" s="27">
-        <f>$E$3+F31</f>
+        <f t="shared" si="1"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F31" s="26">
-        <f>IF($E$4="Yes",D31*$E$5,D31)</f>
+        <f t="shared" si="2"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G31" s="25">
@@ -12680,11 +12701,11 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="H31" s="26">
-        <f>IF(I31="NA","NA",$E$3+I31)</f>
+        <f t="shared" si="3"/>
         <v>5.6393360857927594E-2</v>
       </c>
       <c r="I31" s="31">
-        <f>IF(G31="NA","NA",G31*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>1.4293360857927599E-2</v>
       </c>
     </row>
@@ -12702,15 +12723,15 @@
         <v>Caa1</v>
       </c>
       <c r="D32" s="27">
-        <f>VLOOKUP(C32,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E32" s="27">
-        <f>$E$3+F32</f>
+        <f t="shared" si="1"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F32" s="26">
-        <f>IF($E$4="Yes",D32*$E$5,D32)</f>
+        <f t="shared" si="2"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G32" s="25" t="str">
@@ -12718,11 +12739,11 @@
         <v>NA</v>
       </c>
       <c r="H32" s="26" t="str">
-        <f>IF(I32="NA","NA",$E$3+I32)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I32" s="31" t="str">
-        <f>IF(G32="NA","NA",G32*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
     </row>
@@ -12740,15 +12761,15 @@
         <v>B2</v>
       </c>
       <c r="D33" s="27">
-        <f>VLOOKUP(C33,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E33" s="27">
-        <f>$E$3+F33</f>
+        <f t="shared" si="1"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F33" s="26">
-        <f>IF($E$4="Yes",D33*$E$5,D33)</f>
+        <f t="shared" si="2"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G33" s="25" t="str">
@@ -12756,11 +12777,11 @@
         <v>NA</v>
       </c>
       <c r="H33" s="26" t="str">
-        <f>IF(I33="NA","NA",$E$3+I33)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I33" s="31" t="str">
-        <f>IF(G33="NA","NA",G33*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
     </row>
@@ -12778,15 +12799,15 @@
         <v>Caa1</v>
       </c>
       <c r="D34" s="27">
-        <f>VLOOKUP(C34,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E34" s="27">
-        <f>$E$3+F34</f>
+        <f t="shared" si="1"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F34" s="26">
-        <f>IF($E$4="Yes",D34*$E$5,D34)</f>
+        <f t="shared" si="2"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G34" s="25">
@@ -12794,11 +12815,11 @@
         <v>7.8600000000000003E-2</v>
       </c>
       <c r="H34" s="26">
-        <f>IF(I34="NA","NA",$E$3+I34)</f>
+        <f t="shared" si="3"/>
         <v>0.16035875404559044</v>
       </c>
       <c r="I34" s="31">
-        <f>IF(G34="NA","NA",G34*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>0.11825875404559044</v>
       </c>
     </row>
@@ -12816,15 +12837,15 @@
         <v>Aaa</v>
       </c>
       <c r="D35" s="27">
-        <f>VLOOKUP(C35,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="27">
-        <f>$E$3+F35</f>
+        <f t="shared" si="1"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F35" s="26">
-        <f>IF($E$4="Yes",D35*$E$5,D35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="25">
@@ -12832,11 +12853,11 @@
         <v>2E-3</v>
       </c>
       <c r="H35" s="26">
-        <f>IF(I35="NA","NA",$E$3+I35)</f>
+        <f t="shared" si="3"/>
         <v>4.5109128601668963E-2</v>
       </c>
       <c r="I35" s="31">
-        <f>IF(G35="NA","NA",G35*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>3.0091286016689679E-3</v>
       </c>
     </row>
@@ -12854,15 +12875,15 @@
         <v>B2</v>
       </c>
       <c r="D36" s="27">
-        <f>VLOOKUP(C36,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E36" s="27">
-        <f>$E$3+F36</f>
+        <f t="shared" si="1"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F36" s="26">
-        <f>IF($E$4="Yes",D36*$E$5,D36)</f>
+        <f t="shared" si="2"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G36" s="25" t="str">
@@ -12870,11 +12891,11 @@
         <v>NA</v>
       </c>
       <c r="H36" s="26" t="str">
-        <f>IF(I36="NA","NA",$E$3+I36)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I36" s="31" t="str">
-        <f>IF(G36="NA","NA",G36*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
     </row>
@@ -12892,15 +12913,15 @@
         <v>Aa3</v>
       </c>
       <c r="D37" s="27">
-        <f>VLOOKUP(C37,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E37" s="27">
-        <f>$E$3+F37</f>
+        <f t="shared" si="1"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F37" s="26">
-        <f>IF($E$4="Yes",D37*$E$5,D37)</f>
+        <f t="shared" si="2"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G37" s="25" t="str">
@@ -12908,11 +12929,11 @@
         <v>NA</v>
       </c>
       <c r="H37" s="26" t="str">
-        <f>IF(I37="NA","NA",$E$3+I37)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="I37" s="31" t="str">
-        <f>IF(G37="NA","NA",G37*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
     </row>
@@ -12930,15 +12951,15 @@
         <v>A2</v>
       </c>
       <c r="D38" s="27">
-        <f>VLOOKUP(C38,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>8.3203732252395985E-3</v>
       </c>
       <c r="E38" s="27">
-        <f>$E$3+F38</f>
+        <f t="shared" si="1"/>
         <v>5.4618536524314573E-2</v>
       </c>
       <c r="F38" s="26">
-        <f>IF($E$4="Yes",D38*$E$5,D38)</f>
+        <f t="shared" si="2"/>
         <v>1.2518536524314576E-2</v>
       </c>
       <c r="G38" s="25">
@@ -12946,11 +12967,11 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H38" s="26">
-        <f>IF(I38="NA","NA",$E$3+I38)</f>
+        <f t="shared" si="3"/>
         <v>5.5189709417260008E-2</v>
       </c>
       <c r="I38" s="31">
-        <f>IF(G38="NA","NA",G38*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>1.3089709417260009E-2</v>
       </c>
     </row>
@@ -12968,15 +12989,15 @@
         <v>A1</v>
       </c>
       <c r="D39" s="27">
-        <f>VLOOKUP(C39,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="0"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E39" s="27">
-        <f>$E$3+F39</f>
+        <f t="shared" si="1"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F39" s="26">
-        <f>IF($E$4="Yes",D39*$E$5,D39)</f>
+        <f t="shared" si="2"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G39" s="25">
@@ -12984,11 +13005,11 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="H39" s="26">
-        <f>IF(I39="NA","NA",$E$3+I39)</f>
+        <f t="shared" si="3"/>
         <v>5.0826472944840009E-2</v>
       </c>
       <c r="I39" s="31">
-        <f>IF(G39="NA","NA",G39*$E$5)</f>
+        <f t="shared" si="4"/>
         <v>8.7264729448400073E-3</v>
       </c>
     </row>
@@ -13006,15 +13027,15 @@
         <v>Baa3</v>
       </c>
       <c r="D40" s="27">
-        <f>VLOOKUP(C40,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" ref="D40:D71" si="6">VLOOKUP(C40,$J$9:$K$31,2,FALSE)/10000</f>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E40" s="27">
-        <f>$E$3+F40</f>
+        <f t="shared" ref="E40:E71" si="7">$E$3+F40</f>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F40" s="26">
-        <f>IF($E$4="Yes",D40*$E$5,D40)</f>
+        <f t="shared" ref="F40:F71" si="8">IF($E$4="Yes",D40*$E$5,D40)</f>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G40" s="25">
@@ -13022,11 +13043,11 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H40" s="26">
-        <f>IF(I40="NA","NA",$E$3+I40)</f>
+        <f t="shared" ref="H40:H71" si="9">IF(I40="NA","NA",$E$3+I40)</f>
         <v>9.1901078357621416E-2</v>
       </c>
       <c r="I40" s="31">
-        <f>IF(G40="NA","NA",G40*$E$5)</f>
+        <f t="shared" ref="I40:I71" si="10">IF(G40="NA","NA",G40*$E$5)</f>
         <v>4.9801078357621417E-2</v>
       </c>
     </row>
@@ -13044,15 +13065,15 @@
         <v>B3</v>
       </c>
       <c r="D41" s="27">
-        <f>VLOOKUP(C41,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E41" s="27">
-        <f>$E$3+F41</f>
+        <f t="shared" si="7"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F41" s="26">
-        <f>IF($E$4="Yes",D41*$E$5,D41)</f>
+        <f t="shared" si="8"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G41" s="25" t="str">
@@ -13060,11 +13081,11 @@
         <v>NA</v>
       </c>
       <c r="H41" s="26" t="str">
-        <f>IF(I41="NA","NA",$E$3+I41)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I41" s="31" t="str">
-        <f>IF(G41="NA","NA",G41*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13082,15 +13103,15 @@
         <v>Caa2</v>
       </c>
       <c r="D42" s="27">
-        <f>VLOOKUP(C42,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E42" s="27">
-        <f>$E$3+F42</f>
+        <f t="shared" si="7"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F42" s="26">
-        <f>IF($E$4="Yes",D42*$E$5,D42)</f>
+        <f t="shared" si="8"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G42" s="25" t="str">
@@ -13098,11 +13119,11 @@
         <v>NA</v>
       </c>
       <c r="H42" s="26" t="str">
-        <f>IF(I42="NA","NA",$E$3+I42)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I42" s="31" t="str">
-        <f>IF(G42="NA","NA",G42*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13120,15 +13141,15 @@
         <v>B1</v>
       </c>
       <c r="D43" s="27">
-        <f>VLOOKUP(C43,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E43" s="27">
-        <f>$E$3+F43</f>
+        <f t="shared" si="7"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F43" s="26">
-        <f>IF($E$4="Yes",D43*$E$5,D43)</f>
+        <f t="shared" si="8"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G43" s="25" t="str">
@@ -13136,11 +13157,11 @@
         <v>NA</v>
       </c>
       <c r="H43" s="26" t="str">
-        <f>IF(I43="NA","NA",$E$3+I43)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I43" s="31" t="str">
-        <f>IF(G43="NA","NA",G43*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13158,15 +13179,15 @@
         <v>Ba3</v>
       </c>
       <c r="D44" s="27">
-        <f>VLOOKUP(C44,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E44" s="27">
-        <f>$E$3+F44</f>
+        <f t="shared" si="7"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F44" s="26">
-        <f>IF($E$4="Yes",D44*$E$5,D44)</f>
+        <f t="shared" si="8"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G44" s="25">
@@ -13174,11 +13195,11 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="H44" s="26">
-        <f>IF(I44="NA","NA",$E$3+I44)</f>
+        <f t="shared" si="9"/>
         <v>7.7156348209443476E-2</v>
       </c>
       <c r="I44" s="31">
-        <f>IF(G44="NA","NA",G44*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>3.5056348209443478E-2</v>
       </c>
     </row>
@@ -13196,15 +13217,15 @@
         <v>Ba2</v>
       </c>
       <c r="D45" s="27">
-        <f>VLOOKUP(C45,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E45" s="27">
-        <f>$E$3+F45</f>
+        <f t="shared" si="7"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F45" s="26">
-        <f>IF($E$4="Yes",D45*$E$5,D45)</f>
+        <f t="shared" si="8"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G45" s="25" t="str">
@@ -13212,11 +13233,11 @@
         <v>NA</v>
       </c>
       <c r="H45" s="26" t="str">
-        <f>IF(I45="NA","NA",$E$3+I45)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I45" s="31" t="str">
-        <f>IF(G45="NA","NA",G45*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13234,15 +13255,15 @@
         <v>A3</v>
       </c>
       <c r="D46" s="27">
-        <f>VLOOKUP(C46,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E46" s="27">
-        <f>$E$3+F46</f>
+        <f t="shared" si="7"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F46" s="26">
-        <f>IF($E$4="Yes",D46*$E$5,D46)</f>
+        <f t="shared" si="8"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G46" s="25">
@@ -13250,11 +13271,11 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H46" s="26">
-        <f>IF(I46="NA","NA",$E$3+I46)</f>
+        <f t="shared" si="9"/>
         <v>5.8198838018928972E-2</v>
       </c>
       <c r="I46" s="31">
-        <f>IF(G46="NA","NA",G46*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>1.6098838018928977E-2</v>
       </c>
     </row>
@@ -13272,15 +13293,15 @@
         <v>Ca</v>
       </c>
       <c r="D47" s="27">
-        <f>VLOOKUP(C47,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>0.11798751476346708</v>
       </c>
       <c r="E47" s="27">
-        <f>$E$3+F47</f>
+        <f t="shared" si="7"/>
         <v>0.21961980265729422</v>
       </c>
       <c r="F47" s="26">
-        <f>IF($E$4="Yes",D47*$E$5,D47)</f>
+        <f t="shared" si="8"/>
         <v>0.17751980265729422</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -13288,11 +13309,11 @@
         <v>NA</v>
       </c>
       <c r="H47" s="26" t="str">
-        <f>IF(I47="NA","NA",$E$3+I47)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I47" s="31" t="str">
-        <f>IF(G47="NA","NA",G47*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13310,15 +13331,15 @@
         <v>Baa3</v>
       </c>
       <c r="D48" s="27">
-        <f>VLOOKUP(C48,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E48" s="27">
-        <f>$E$3+F48</f>
+        <f t="shared" si="7"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F48" s="26">
-        <f>IF($E$4="Yes",D48*$E$5,D48)</f>
+        <f t="shared" si="8"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -13326,11 +13347,11 @@
         <v>NA</v>
       </c>
       <c r="H48" s="26" t="str">
-        <f>IF(I48="NA","NA",$E$3+I48)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I48" s="31" t="str">
-        <f>IF(G48="NA","NA",G48*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13348,15 +13369,15 @@
         <v>A3</v>
       </c>
       <c r="D49" s="27">
-        <f>VLOOKUP(C49,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E49" s="27">
-        <f>$E$3+F49</f>
+        <f t="shared" si="7"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F49" s="26">
-        <f>IF($E$4="Yes",D49*$E$5,D49)</f>
+        <f t="shared" si="8"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G49" s="25">
@@ -13364,11 +13385,11 @@
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="H49" s="26">
-        <f>IF(I49="NA","NA",$E$3+I49)</f>
+        <f t="shared" si="9"/>
         <v>5.1879667955424147E-2</v>
       </c>
       <c r="I49" s="31">
-        <f>IF(G49="NA","NA",G49*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>9.7796679554241466E-3</v>
       </c>
     </row>
@@ -13386,15 +13407,15 @@
         <v>Aa3</v>
       </c>
       <c r="D50" s="27">
-        <f>VLOOKUP(C50,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E50" s="27">
-        <f>$E$3+F50</f>
+        <f t="shared" si="7"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F50" s="26">
-        <f>IF($E$4="Yes",D50*$E$5,D50)</f>
+        <f t="shared" si="8"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G50" s="25">
@@ -13402,11 +13423,11 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H50" s="26">
-        <f>IF(I50="NA","NA",$E$3+I50)</f>
+        <f t="shared" si="9"/>
         <v>4.766688791308759E-2</v>
       </c>
       <c r="I50" s="31">
-        <f>IF(G50="NA","NA",G50*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>5.5668879130875912E-3</v>
       </c>
     </row>
@@ -13424,15 +13445,15 @@
         <v>Aaa</v>
       </c>
       <c r="D51" s="27">
-        <f>VLOOKUP(C51,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" s="27">
-        <f>$E$3+F51</f>
+        <f t="shared" si="7"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F51" s="26">
-        <f>IF($E$4="Yes",D51*$E$5,D51)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G51" s="25">
@@ -13440,11 +13461,11 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="H51" s="26">
-        <f>IF(I51="NA","NA",$E$3+I51)</f>
+        <f t="shared" si="9"/>
         <v>4.2701825720333791E-2</v>
       </c>
       <c r="I51" s="31">
-        <f>IF(G51="NA","NA",G51*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>6.0182572033379354E-4</v>
       </c>
     </row>
@@ -13462,15 +13483,15 @@
         <v>Ba3</v>
       </c>
       <c r="D52" s="27">
-        <f>VLOOKUP(C52,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E52" s="27">
-        <f>$E$3+F52</f>
+        <f t="shared" si="7"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F52" s="26">
-        <f>IF($E$4="Yes",D52*$E$5,D52)</f>
+        <f t="shared" si="8"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -13478,11 +13499,11 @@
         <v>NA</v>
       </c>
       <c r="H52" s="26" t="str">
-        <f>IF(I52="NA","NA",$E$3+I52)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I52" s="31" t="str">
-        <f>IF(G52="NA","NA",G52*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13500,15 +13521,15 @@
         <v>Caa3</v>
       </c>
       <c r="D53" s="27">
-        <f>VLOOKUP(C53,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>9.8342189092762475E-2</v>
       </c>
       <c r="E53" s="27">
-        <f>$E$3+F53</f>
+        <f t="shared" si="7"/>
         <v>0.1900621469748848</v>
       </c>
       <c r="F53" s="26">
-        <f>IF($E$4="Yes",D53*$E$5,D53)</f>
+        <f t="shared" si="8"/>
         <v>0.1479621469748848</v>
       </c>
       <c r="G53" s="25">
@@ -13516,11 +13537,11 @@
         <v>0.12250000000000001</v>
       </c>
       <c r="H53" s="26">
-        <f>IF(I53="NA","NA",$E$3+I53)</f>
+        <f t="shared" si="9"/>
         <v>0.22640912685222431</v>
       </c>
       <c r="I53" s="31">
-        <f>IF(G53="NA","NA",G53*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>0.18430912685222431</v>
       </c>
     </row>
@@ -13538,15 +13559,15 @@
         <v>Caa1</v>
       </c>
       <c r="D54" s="27">
-        <f>VLOOKUP(C54,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E54" s="27">
-        <f>$E$3+F54</f>
+        <f t="shared" si="7"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F54" s="26">
-        <f>IF($E$4="Yes",D54*$E$5,D54)</f>
+        <f t="shared" si="8"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G54" s="25">
@@ -13554,11 +13575,11 @@
         <v>6.4400000000000013E-2</v>
       </c>
       <c r="H54" s="26">
-        <f>IF(I54="NA","NA",$E$3+I54)</f>
+        <f t="shared" si="9"/>
         <v>0.13899394097374079</v>
       </c>
       <c r="I54" s="31">
-        <f>IF(G54="NA","NA",G54*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>9.6893940973740794E-2</v>
       </c>
     </row>
@@ -13576,15 +13597,15 @@
         <v>B3</v>
       </c>
       <c r="D55" s="27">
-        <f>VLOOKUP(C55,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E55" s="27">
-        <f>$E$3+F55</f>
+        <f t="shared" si="7"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F55" s="26">
-        <f>IF($E$4="Yes",D55*$E$5,D55)</f>
+        <f t="shared" si="8"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G55" s="25">
@@ -13592,11 +13613,11 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="H55" s="26">
-        <f>IF(I55="NA","NA",$E$3+I55)</f>
+        <f t="shared" si="9"/>
         <v>0.1067962649358828</v>
       </c>
       <c r="I55" s="31">
-        <f>IF(G55="NA","NA",G55*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>6.4696264935882805E-2</v>
       </c>
     </row>
@@ -13614,15 +13635,15 @@
         <v>A1</v>
       </c>
       <c r="D56" s="27">
-        <f>VLOOKUP(C56,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E56" s="27">
-        <f>$E$3+F56</f>
+        <f t="shared" si="7"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F56" s="26">
-        <f>IF($E$4="Yes",D56*$E$5,D56)</f>
+        <f t="shared" si="8"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G56" s="25">
@@ -13630,11 +13651,11 @@
         <v>7.5999999999999991E-3</v>
       </c>
       <c r="H56" s="26">
-        <f>IF(I56="NA","NA",$E$3+I56)</f>
+        <f t="shared" si="9"/>
         <v>5.3534688686342077E-2</v>
       </c>
       <c r="I56" s="31">
-        <f>IF(G56="NA","NA",G56*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>1.1434688686342077E-2</v>
       </c>
     </row>
@@ -13652,15 +13673,15 @@
         <v>Caa2</v>
       </c>
       <c r="D57" s="27">
-        <f>VLOOKUP(C57,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E57" s="27">
-        <f>$E$3+F57</f>
+        <f t="shared" si="7"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F57" s="26">
-        <f>IF($E$4="Yes",D57*$E$5,D57)</f>
+        <f t="shared" si="8"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G57" s="25" t="str">
@@ -13668,11 +13689,11 @@
         <v>NA</v>
       </c>
       <c r="H57" s="26" t="str">
-        <f>IF(I57="NA","NA",$E$3+I57)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I57" s="31" t="str">
-        <f>IF(G57="NA","NA",G57*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13690,15 +13711,15 @@
         <v>B1</v>
       </c>
       <c r="D58" s="27">
-        <f>VLOOKUP(C58,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E58" s="27">
-        <f>$E$3+F58</f>
+        <f t="shared" si="7"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F58" s="26">
-        <f>IF($E$4="Yes",D58*$E$5,D58)</f>
+        <f t="shared" si="8"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G58" s="25" t="str">
@@ -13706,11 +13727,11 @@
         <v>NA</v>
       </c>
       <c r="H58" s="26" t="str">
-        <f>IF(I58="NA","NA",$E$3+I58)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I58" s="31" t="str">
-        <f>IF(G58="NA","NA",G58*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13728,15 +13749,15 @@
         <v>Aa1</v>
       </c>
       <c r="D59" s="27">
-        <f>VLOOKUP(C59,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E59" s="27">
-        <f>$E$3+F59</f>
+        <f t="shared" si="7"/>
         <v>4.6162323612253107E-2</v>
       </c>
       <c r="F59" s="26">
-        <f>IF($E$4="Yes",D59*$E$5,D59)</f>
+        <f t="shared" si="8"/>
         <v>4.0623236122531072E-3</v>
       </c>
       <c r="G59" s="25">
@@ -13744,11 +13765,11 @@
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="H59" s="26">
-        <f>IF(I59="NA","NA",$E$3+I59)</f>
+        <f t="shared" si="9"/>
         <v>4.4356846451251722E-2</v>
       </c>
       <c r="I59" s="31">
-        <f>IF(G59="NA","NA",G59*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>2.2568464512517264E-3</v>
       </c>
     </row>
@@ -13766,15 +13787,15 @@
         <v>Aa3</v>
       </c>
       <c r="D60" s="27">
-        <f>VLOOKUP(C60,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E60" s="27">
-        <f>$E$3+F60</f>
+        <f t="shared" si="7"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F60" s="26">
-        <f>IF($E$4="Yes",D60*$E$5,D60)</f>
+        <f t="shared" si="8"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G60" s="25">
@@ -13782,11 +13803,11 @@
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="H60" s="26">
-        <f>IF(I60="NA","NA",$E$3+I60)</f>
+        <f t="shared" si="9"/>
         <v>4.9773277934255865E-2</v>
       </c>
       <c r="I60" s="31">
-        <f>IF(G60="NA","NA",G60*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>7.673277934255868E-3</v>
       </c>
     </row>
@@ -13804,15 +13825,15 @@
         <v>Caa2</v>
       </c>
       <c r="D61" s="27">
-        <f>VLOOKUP(C61,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E61" s="27">
-        <f>$E$3+F61</f>
+        <f t="shared" si="7"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F61" s="26">
-        <f>IF($E$4="Yes",D61*$E$5,D61)</f>
+        <f t="shared" si="8"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G61" s="25" t="str">
@@ -13820,11 +13841,11 @@
         <v>NA</v>
       </c>
       <c r="H61" s="26" t="str">
-        <f>IF(I61="NA","NA",$E$3+I61)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I61" s="31" t="str">
-        <f>IF(G61="NA","NA",G61*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13842,15 +13863,15 @@
         <v>Ba2</v>
       </c>
       <c r="D62" s="27">
-        <f>VLOOKUP(C62,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E62" s="27">
-        <f>$E$3+F62</f>
+        <f t="shared" si="7"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F62" s="26">
-        <f>IF($E$4="Yes",D62*$E$5,D62)</f>
+        <f t="shared" si="8"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G62" s="25" t="str">
@@ -13858,11 +13879,11 @@
         <v>NA</v>
       </c>
       <c r="H62" s="26" t="str">
-        <f>IF(I62="NA","NA",$E$3+I62)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I62" s="31" t="str">
-        <f>IF(G62="NA","NA",G62*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13880,15 +13901,15 @@
         <v>Aaa</v>
       </c>
       <c r="D63" s="27">
-        <f>VLOOKUP(C63,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" s="27">
-        <f>$E$3+F63</f>
+        <f t="shared" si="7"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F63" s="26">
-        <f>IF($E$4="Yes",D63*$E$5,D63)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G63" s="25">
@@ -13896,11 +13917,11 @@
         <v>6.9999999999999988E-4</v>
       </c>
       <c r="H63" s="26">
-        <f>IF(I63="NA","NA",$E$3+I63)</f>
+        <f t="shared" si="9"/>
         <v>4.3153195010584136E-2</v>
       </c>
       <c r="I63" s="31">
-        <f>IF(G63="NA","NA",G63*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>1.0531950105841386E-3</v>
       </c>
     </row>
@@ -13918,15 +13939,15 @@
         <v>Caa2</v>
       </c>
       <c r="D64" s="27">
-        <f>VLOOKUP(C64,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E64" s="27">
-        <f>$E$3+F64</f>
+        <f t="shared" si="7"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F64" s="26">
-        <f>IF($E$4="Yes",D64*$E$5,D64)</f>
+        <f t="shared" si="8"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G64" s="25" t="str">
@@ -13934,11 +13955,11 @@
         <v>NA</v>
       </c>
       <c r="H64" s="26" t="str">
-        <f>IF(I64="NA","NA",$E$3+I64)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I64" s="31" t="str">
-        <f>IF(G64="NA","NA",G64*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -13956,15 +13977,15 @@
         <v>Baa3</v>
       </c>
       <c r="D65" s="27">
-        <f>VLOOKUP(C65,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E65" s="27">
-        <f>$E$3+F65</f>
+        <f t="shared" si="7"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F65" s="26">
-        <f>IF($E$4="Yes",D65*$E$5,D65)</f>
+        <f t="shared" si="8"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G65" s="25">
@@ -13972,11 +13993,11 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="H65" s="26">
-        <f>IF(I65="NA","NA",$E$3+I65)</f>
+        <f t="shared" si="9"/>
         <v>5.5189709417260008E-2</v>
       </c>
       <c r="I65" s="31">
-        <f>IF(G65="NA","NA",G65*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>1.3089709417260009E-2</v>
       </c>
     </row>
@@ -13994,15 +14015,15 @@
         <v>Ba1</v>
       </c>
       <c r="D66" s="27">
-        <f>VLOOKUP(C66,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>2.4614437458000481E-2</v>
       </c>
       <c r="E66" s="27">
-        <f>$E$3+F66</f>
+        <f t="shared" si="7"/>
         <v>7.913400388443062E-2</v>
       </c>
       <c r="F66" s="26">
-        <f>IF($E$4="Yes",D66*$E$5,D66)</f>
+        <f t="shared" si="8"/>
         <v>3.7034003884430629E-2</v>
       </c>
       <c r="G66" s="25" t="str">
@@ -14010,11 +14031,11 @@
         <v>NA</v>
       </c>
       <c r="H66" s="26" t="str">
-        <f>IF(I66="NA","NA",$E$3+I66)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I66" s="31" t="str">
-        <f>IF(G66="NA","NA",G66*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -14032,15 +14053,15 @@
         <v>A1</v>
       </c>
       <c r="D67" s="27">
-        <f>VLOOKUP(C67,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E67" s="27">
-        <f>$E$3+F67</f>
+        <f t="shared" si="7"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F67" s="26">
-        <f>IF($E$4="Yes",D67*$E$5,D67)</f>
+        <f t="shared" si="8"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G67" s="25" t="str">
@@ -14048,11 +14069,11 @@
         <v>NA</v>
       </c>
       <c r="H67" s="26" t="str">
-        <f>IF(I67="NA","NA",$E$3+I67)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I67" s="31" t="str">
-        <f>IF(G67="NA","NA",G67*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -14070,15 +14091,15 @@
         <v>B1</v>
       </c>
       <c r="D68" s="27">
-        <f>VLOOKUP(C68,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E68" s="27">
-        <f>$E$3+F68</f>
+        <f t="shared" si="7"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F68" s="26">
-        <f>IF($E$4="Yes",D68*$E$5,D68)</f>
+        <f t="shared" si="8"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G68" s="25" t="str">
@@ -14086,11 +14107,11 @@
         <v>NA</v>
       </c>
       <c r="H68" s="26" t="str">
-        <f>IF(I68="NA","NA",$E$3+I68)</f>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="I68" s="31" t="str">
-        <f>IF(G68="NA","NA",G68*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
     </row>
@@ -14108,15 +14129,15 @@
         <v>Aa3</v>
       </c>
       <c r="D69" s="27">
-        <f>VLOOKUP(C69,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E69" s="27">
-        <f>$E$3+F69</f>
+        <f t="shared" si="7"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F69" s="26">
-        <f>IF($E$4="Yes",D69*$E$5,D69)</f>
+        <f t="shared" si="8"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G69" s="25">
@@ -14124,11 +14145,11 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H69" s="26">
-        <f>IF(I69="NA","NA",$E$3+I69)</f>
+        <f t="shared" si="9"/>
         <v>4.8419170063504831E-2</v>
       </c>
       <c r="I69" s="31">
-        <f>IF(G69="NA","NA",G69*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>6.3191700635048323E-3</v>
       </c>
     </row>
@@ -14146,15 +14167,15 @@
         <v>Baa2</v>
       </c>
       <c r="D70" s="27">
-        <f>VLOOKUP(C70,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>1.87208397567891E-2</v>
       </c>
       <c r="E70" s="27">
-        <f>$E$3+F70</f>
+        <f t="shared" si="7"/>
         <v>7.0266707179707802E-2</v>
       </c>
       <c r="F70" s="26">
-        <f>IF($E$4="Yes",D70*$E$5,D70)</f>
+        <f t="shared" si="8"/>
         <v>2.8166707179707803E-2</v>
       </c>
       <c r="G70" s="25">
@@ -14162,11 +14183,11 @@
         <v>1.66E-2</v>
       </c>
       <c r="H70" s="26">
-        <f>IF(I70="NA","NA",$E$3+I70)</f>
+        <f t="shared" si="9"/>
         <v>6.7075767393852431E-2</v>
       </c>
       <c r="I70" s="31">
-        <f>IF(G70="NA","NA",G70*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>2.4975767393852436E-2</v>
       </c>
     </row>
@@ -14184,15 +14205,15 @@
         <v>A1</v>
       </c>
       <c r="D71" s="27">
-        <f>VLOOKUP(C71,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="6"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E71" s="27">
-        <f>$E$3+F71</f>
+        <f t="shared" si="7"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F71" s="26">
-        <f>IF($E$4="Yes",D71*$E$5,D71)</f>
+        <f t="shared" si="8"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G71" s="25">
@@ -14200,11 +14221,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H71" s="26">
-        <f>IF(I71="NA","NA",$E$3+I71)</f>
+        <f t="shared" si="9"/>
         <v>4.6613692902503452E-2</v>
       </c>
       <c r="I71" s="31">
-        <f>IF(G71="NA","NA",G71*$E$5)</f>
+        <f t="shared" si="10"/>
         <v>4.5136929025034519E-3</v>
       </c>
     </row>
@@ -14222,15 +14243,15 @@
         <v>Baa3</v>
       </c>
       <c r="D72" s="27">
-        <f>VLOOKUP(C72,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" ref="D72:D103" si="11">VLOOKUP(C72,$J$9:$K$31,2,FALSE)/10000</f>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E72" s="27">
-        <f>$E$3+F72</f>
+        <f t="shared" ref="E72:E103" si="12">$E$3+F72</f>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F72" s="26">
-        <f>IF($E$4="Yes",D72*$E$5,D72)</f>
+        <f t="shared" ref="F72:F103" si="13">IF($E$4="Yes",D72*$E$5,D72)</f>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G72" s="25">
@@ -14238,11 +14259,11 @@
         <v>6.6999999999999994E-3</v>
       </c>
       <c r="H72" s="26">
-        <f>IF(I72="NA","NA",$E$3+I72)</f>
+        <f t="shared" ref="H72:H103" si="14">IF(I72="NA","NA",$E$3+I72)</f>
         <v>5.2180580815591043E-2</v>
       </c>
       <c r="I72" s="31">
-        <f>IF(G72="NA","NA",G72*$E$5)</f>
+        <f t="shared" ref="I72:I103" si="15">IF(G72="NA","NA",G72*$E$5)</f>
         <v>1.0080580815591041E-2</v>
       </c>
     </row>
@@ -14260,15 +14281,15 @@
         <v>Baa2</v>
       </c>
       <c r="D73" s="27">
-        <f>VLOOKUP(C73,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.87208397567891E-2</v>
       </c>
       <c r="E73" s="27">
-        <f>$E$3+F73</f>
+        <f t="shared" si="12"/>
         <v>7.0266707179707802E-2</v>
       </c>
       <c r="F73" s="26">
-        <f>IF($E$4="Yes",D73*$E$5,D73)</f>
+        <f t="shared" si="13"/>
         <v>2.8166707179707803E-2</v>
       </c>
       <c r="G73" s="25">
@@ -14276,11 +14297,11 @@
         <v>1.17E-2</v>
       </c>
       <c r="H73" s="26">
-        <f>IF(I73="NA","NA",$E$3+I73)</f>
+        <f t="shared" si="14"/>
         <v>5.9703402319763461E-2</v>
       </c>
       <c r="I73" s="31">
-        <f>IF(G73="NA","NA",G73*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.7603402319763463E-2</v>
       </c>
     </row>
@@ -14298,15 +14319,15 @@
         <v>Caa1</v>
       </c>
       <c r="D74" s="27">
-        <f>VLOOKUP(C74,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E74" s="27">
-        <f>$E$3+F74</f>
+        <f t="shared" si="12"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F74" s="26">
-        <f>IF($E$4="Yes",D74*$E$5,D74)</f>
+        <f t="shared" si="13"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G74" s="25">
@@ -14314,11 +14335,11 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="H74" s="26">
-        <f>IF(I74="NA","NA",$E$3+I74)</f>
+        <f t="shared" si="14"/>
         <v>0.10047709487237798</v>
       </c>
       <c r="I74" s="31">
-        <f>IF(G74="NA","NA",G74*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>5.837709487237798E-2</v>
       </c>
     </row>
@@ -14336,15 +14357,15 @@
         <v>Aa3</v>
       </c>
       <c r="D75" s="27">
-        <f>VLOOKUP(C75,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E75" s="27">
-        <f>$E$3+F75</f>
+        <f t="shared" si="12"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F75" s="26">
-        <f>IF($E$4="Yes",D75*$E$5,D75)</f>
+        <f t="shared" si="13"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G75" s="25">
@@ -14352,11 +14373,11 @@
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="H75" s="26">
-        <f>IF(I75="NA","NA",$E$3+I75)</f>
+        <f t="shared" si="14"/>
         <v>4.5259585031752418E-2</v>
       </c>
       <c r="I75" s="31">
-        <f>IF(G75="NA","NA",G75*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>3.159585031752417E-3</v>
       </c>
     </row>
@@ -14374,15 +14395,15 @@
         <v>Aa3</v>
       </c>
       <c r="D76" s="27">
-        <f>VLOOKUP(C76,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E76" s="27">
-        <f>$E$3+F76</f>
+        <f t="shared" si="12"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F76" s="26">
-        <f>IF($E$4="Yes",D76*$E$5,D76)</f>
+        <f t="shared" si="13"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G76" s="25" t="str">
@@ -14390,11 +14411,11 @@
         <v>NA</v>
       </c>
       <c r="H76" s="26" t="str">
-        <f>IF(I76="NA","NA",$E$3+I76)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I76" s="31" t="str">
-        <f>IF(G76="NA","NA",G76*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14412,15 +14433,15 @@
         <v>Baa1</v>
       </c>
       <c r="D77" s="27">
-        <f>VLOOKUP(C77,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E77" s="27">
-        <f>$E$3+F77</f>
+        <f t="shared" si="12"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F77" s="26">
-        <f>IF($E$4="Yes",D77*$E$5,D77)</f>
+        <f t="shared" si="13"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G77" s="25">
@@ -14428,11 +14449,11 @@
         <v>1.2199999999999999E-2</v>
       </c>
       <c r="H77" s="26">
-        <f>IF(I77="NA","NA",$E$3+I77)</f>
+        <f t="shared" si="14"/>
         <v>6.0455684470180703E-2</v>
       </c>
       <c r="I77" s="31">
-        <f>IF(G77="NA","NA",G77*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.8355684470180704E-2</v>
       </c>
     </row>
@@ -14450,15 +14471,15 @@
         <v>Baa3</v>
       </c>
       <c r="D78" s="27">
-        <f>VLOOKUP(C78,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E78" s="27">
-        <f>$E$3+F78</f>
+        <f t="shared" si="12"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F78" s="26">
-        <f>IF($E$4="Yes",D78*$E$5,D78)</f>
+        <f t="shared" si="13"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G78" s="25">
@@ -14466,11 +14487,11 @@
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="H78" s="26">
-        <f>IF(I78="NA","NA",$E$3+I78)</f>
+        <f t="shared" si="14"/>
         <v>5.4286970836759318E-2</v>
       </c>
       <c r="I78" s="31">
-        <f>IF(G78="NA","NA",G78*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.218697083675932E-2</v>
       </c>
     </row>
@@ -14488,15 +14509,15 @@
         <v>B1</v>
       </c>
       <c r="D79" s="27">
-        <f>VLOOKUP(C79,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E79" s="27">
-        <f>$E$3+F79</f>
+        <f t="shared" si="12"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F79" s="26">
-        <f>IF($E$4="Yes",D79*$E$5,D79)</f>
+        <f t="shared" si="13"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G79" s="25" t="str">
@@ -14504,11 +14525,11 @@
         <v>NA</v>
       </c>
       <c r="H79" s="26" t="str">
-        <f>IF(I79="NA","NA",$E$3+I79)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I79" s="31" t="str">
-        <f>IF(G79="NA","NA",G79*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14526,15 +14547,15 @@
         <v>A1</v>
       </c>
       <c r="D80" s="27">
-        <f>VLOOKUP(C80,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E80" s="27">
-        <f>$E$3+F80</f>
+        <f t="shared" si="12"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F80" s="26">
-        <f>IF($E$4="Yes",D80*$E$5,D80)</f>
+        <f t="shared" si="13"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G80" s="25">
@@ -14542,11 +14563,11 @@
         <v>1.9E-3</v>
       </c>
       <c r="H80" s="26">
-        <f>IF(I80="NA","NA",$E$3+I80)</f>
+        <f t="shared" si="14"/>
         <v>4.4958672171585515E-2</v>
       </c>
       <c r="I80" s="31">
-        <f>IF(G80="NA","NA",G80*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>2.8586721715855197E-3</v>
       </c>
     </row>
@@ -14564,15 +14585,15 @@
         <v>Aa3</v>
       </c>
       <c r="D81" s="27">
-        <f>VLOOKUP(C81,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E81" s="27">
-        <f>$E$3+F81</f>
+        <f t="shared" si="12"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F81" s="26">
-        <f>IF($E$4="Yes",D81*$E$5,D81)</f>
+        <f t="shared" si="13"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G81" s="25" t="str">
@@ -14580,11 +14601,11 @@
         <v>NA</v>
       </c>
       <c r="H81" s="26" t="str">
-        <f>IF(I81="NA","NA",$E$3+I81)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I81" s="31" t="str">
-        <f>IF(G81="NA","NA",G81*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14602,15 +14623,15 @@
         <v>Ba3</v>
       </c>
       <c r="D82" s="27">
-        <f>VLOOKUP(C82,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E82" s="27">
-        <f>$E$3+F82</f>
+        <f t="shared" si="12"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F82" s="26">
-        <f>IF($E$4="Yes",D82*$E$5,D82)</f>
+        <f t="shared" si="13"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G82" s="25" t="str">
@@ -14618,11 +14639,11 @@
         <v>NA</v>
       </c>
       <c r="H82" s="26" t="str">
-        <f>IF(I82="NA","NA",$E$3+I82)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I82" s="31" t="str">
-        <f>IF(G82="NA","NA",G82*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14640,15 +14661,15 @@
         <v>Baa1</v>
       </c>
       <c r="D83" s="27">
-        <f>VLOOKUP(C83,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E83" s="27">
-        <f>$E$3+F83</f>
+        <f t="shared" si="12"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F83" s="26">
-        <f>IF($E$4="Yes",D83*$E$5,D83)</f>
+        <f t="shared" si="13"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G83" s="25">
@@ -14656,11 +14677,11 @@
         <v>1.29E-2</v>
       </c>
       <c r="H83" s="26">
-        <f>IF(I83="NA","NA",$E$3+I83)</f>
+        <f t="shared" si="14"/>
         <v>6.1508879480764847E-2</v>
       </c>
       <c r="I83" s="31">
-        <f>IF(G83="NA","NA",G83*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.9408879480764845E-2</v>
       </c>
     </row>
@@ -14678,15 +14699,15 @@
         <v>Caa1</v>
       </c>
       <c r="D84" s="27">
-        <f>VLOOKUP(C84,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E84" s="27">
-        <f>$E$3+F84</f>
+        <f t="shared" si="12"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F84" s="26">
-        <f>IF($E$4="Yes",D84*$E$5,D84)</f>
+        <f t="shared" si="13"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G84" s="25">
@@ -14694,11 +14715,11 @@
         <v>6.1699999999999998E-2</v>
       </c>
       <c r="H84" s="26">
-        <f>IF(I84="NA","NA",$E$3+I84)</f>
+        <f t="shared" si="14"/>
         <v>0.13493161736148768</v>
       </c>
       <c r="I84" s="31">
-        <f>IF(G84="NA","NA",G84*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>9.2831617361487664E-2</v>
       </c>
     </row>
@@ -14716,15 +14737,15 @@
         <v>Aa2</v>
       </c>
       <c r="D85" s="27">
-        <f>VLOOKUP(C85,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>4.8535510480564323E-3</v>
       </c>
       <c r="E85" s="27">
-        <f>$E$3+F85</f>
+        <f t="shared" si="12"/>
         <v>4.9402479639183504E-2</v>
       </c>
       <c r="F85" s="26">
-        <f>IF($E$4="Yes",D85*$E$5,D85)</f>
+        <f t="shared" si="13"/>
         <v>7.3024796391835027E-3</v>
       </c>
       <c r="G85" s="25">
@@ -14732,11 +14753,11 @@
         <v>2E-3</v>
       </c>
       <c r="H85" s="26">
-        <f>IF(I85="NA","NA",$E$3+I85)</f>
+        <f t="shared" si="14"/>
         <v>4.5109128601668963E-2</v>
       </c>
       <c r="I85" s="31">
-        <f>IF(G85="NA","NA",G85*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>3.0091286016689679E-3</v>
       </c>
     </row>
@@ -14754,15 +14775,15 @@
         <v>A1</v>
       </c>
       <c r="D86" s="27">
-        <f>VLOOKUP(C86,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>6.9336443543663332E-3</v>
       </c>
       <c r="E86" s="27">
-        <f>$E$3+F86</f>
+        <f t="shared" si="12"/>
         <v>5.2532113770262151E-2</v>
       </c>
       <c r="F86" s="26">
-        <f>IF($E$4="Yes",D86*$E$5,D86)</f>
+        <f t="shared" si="13"/>
         <v>1.0432113770262149E-2</v>
       </c>
       <c r="G86" s="25">
@@ -14770,11 +14791,11 @@
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="H86" s="26">
-        <f>IF(I86="NA","NA",$E$3+I86)</f>
+        <f t="shared" si="14"/>
         <v>5.2631950105841388E-2</v>
       </c>
       <c r="I86" s="31">
-        <f>IF(G86="NA","NA",G86*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.0531950105841388E-2</v>
       </c>
     </row>
@@ -14792,15 +14813,15 @@
         <v>B3</v>
       </c>
       <c r="D87" s="27">
-        <f>VLOOKUP(C87,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E87" s="27">
-        <f>$E$3+F87</f>
+        <f t="shared" si="12"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F87" s="26">
-        <f>IF($E$4="Yes",D87*$E$5,D87)</f>
+        <f t="shared" si="13"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G87" s="25" t="str">
@@ -14808,11 +14829,11 @@
         <v>NA</v>
       </c>
       <c r="H87" s="26" t="str">
-        <f>IF(I87="NA","NA",$E$3+I87)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I87" s="31" t="str">
-        <f>IF(G87="NA","NA",G87*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14830,15 +14851,15 @@
         <v>Caa3</v>
       </c>
       <c r="D88" s="27">
-        <f>VLOOKUP(C88,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>9.8342189092762475E-2</v>
       </c>
       <c r="E88" s="27">
-        <f>$E$3+F88</f>
+        <f t="shared" si="12"/>
         <v>0.1900621469748848</v>
       </c>
       <c r="F88" s="26">
-        <f>IF($E$4="Yes",D88*$E$5,D88)</f>
+        <f t="shared" si="13"/>
         <v>0.1479621469748848</v>
       </c>
       <c r="G88" s="25" t="str">
@@ -14846,11 +14867,11 @@
         <v>NA</v>
       </c>
       <c r="H88" s="26" t="str">
-        <f>IF(I88="NA","NA",$E$3+I88)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I88" s="31" t="str">
-        <f>IF(G88="NA","NA",G88*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14868,15 +14889,15 @@
         <v>A3</v>
       </c>
       <c r="D89" s="27">
-        <f>VLOOKUP(C89,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E89" s="27">
-        <f>$E$3+F89</f>
+        <f t="shared" si="12"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F89" s="26">
-        <f>IF($E$4="Yes",D89*$E$5,D89)</f>
+        <f t="shared" si="13"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G89" s="25">
@@ -14884,11 +14905,11 @@
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="H89" s="26">
-        <f>IF(I89="NA","NA",$E$3+I89)</f>
+        <f t="shared" si="14"/>
         <v>5.4286970836759318E-2</v>
       </c>
       <c r="I89" s="31">
-        <f>IF(G89="NA","NA",G89*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.218697083675932E-2</v>
       </c>
     </row>
@@ -14906,15 +14927,15 @@
         <v>C</v>
       </c>
       <c r="D90" s="27">
-        <f>VLOOKUP(C90,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E90" s="27">
-        <f>$E$3+F90</f>
+        <f t="shared" si="12"/>
         <v>0.30539875264603467</v>
       </c>
       <c r="F90" s="26">
-        <f>IF($E$4="Yes",D90*$E$5,D90)</f>
+        <f t="shared" si="13"/>
         <v>0.26329875264603469</v>
       </c>
       <c r="G90" s="25" t="str">
@@ -14922,11 +14943,11 @@
         <v>NA</v>
       </c>
       <c r="H90" s="26" t="str">
-        <f>IF(I90="NA","NA",$E$3+I90)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I90" s="31" t="str">
-        <f>IF(G90="NA","NA",G90*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14944,15 +14965,15 @@
         <v>Aaa</v>
       </c>
       <c r="D91" s="27">
-        <f>VLOOKUP(C91,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E91" s="27">
-        <f>$E$3+F91</f>
+        <f t="shared" si="12"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F91" s="26">
-        <f>IF($E$4="Yes",D91*$E$5,D91)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G91" s="25" t="str">
@@ -14960,11 +14981,11 @@
         <v>NA</v>
       </c>
       <c r="H91" s="26" t="str">
-        <f>IF(I91="NA","NA",$E$3+I91)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I91" s="31" t="str">
-        <f>IF(G91="NA","NA",G91*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -14982,15 +15003,15 @@
         <v>A2</v>
       </c>
       <c r="D92" s="27">
-        <f>VLOOKUP(C92,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>8.3203732252395985E-3</v>
       </c>
       <c r="E92" s="27">
-        <f>$E$3+F92</f>
+        <f t="shared" si="12"/>
         <v>5.4618536524314573E-2</v>
       </c>
       <c r="F92" s="26">
-        <f>IF($E$4="Yes",D92*$E$5,D92)</f>
+        <f t="shared" si="13"/>
         <v>1.2518536524314576E-2</v>
       </c>
       <c r="G92" s="25">
@@ -14998,11 +15019,11 @@
         <v>7.2999999999999992E-3</v>
       </c>
       <c r="H92" s="26">
-        <f>IF(I92="NA","NA",$E$3+I92)</f>
+        <f t="shared" si="14"/>
         <v>5.3083319396091733E-2</v>
       </c>
       <c r="I92" s="31">
-        <f>IF(G92="NA","NA",G92*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>1.0983319396091732E-2</v>
       </c>
     </row>
@@ -15020,15 +15041,15 @@
         <v>Aaa</v>
       </c>
       <c r="D93" s="27">
-        <f>VLOOKUP(C93,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E93" s="27">
-        <f>$E$3+F93</f>
+        <f t="shared" si="12"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F93" s="26">
-        <f>IF($E$4="Yes",D93*$E$5,D93)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G93" s="25" t="str">
@@ -15036,11 +15057,11 @@
         <v>NA</v>
       </c>
       <c r="H93" s="26" t="str">
-        <f>IF(I93="NA","NA",$E$3+I93)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I93" s="31" t="str">
-        <f>IF(G93="NA","NA",G93*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15058,15 +15079,15 @@
         <v>Aa3</v>
       </c>
       <c r="D94" s="27">
-        <f>VLOOKUP(C94,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E94" s="27">
-        <f>$E$3+F94</f>
+        <f t="shared" si="12"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F94" s="26">
-        <f>IF($E$4="Yes",D94*$E$5,D94)</f>
+        <f t="shared" si="13"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G94" s="25" t="str">
@@ -15074,11 +15095,11 @@
         <v>NA</v>
       </c>
       <c r="H94" s="26" t="str">
-        <f>IF(I94="NA","NA",$E$3+I94)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I94" s="31" t="str">
-        <f>IF(G94="NA","NA",G94*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15096,15 +15117,15 @@
         <v>Ba3</v>
       </c>
       <c r="D95" s="27">
-        <f>VLOOKUP(C95,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E95" s="27">
-        <f>$E$3+F95</f>
+        <f t="shared" si="12"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F95" s="26">
-        <f>IF($E$4="Yes",D95*$E$5,D95)</f>
+        <f t="shared" si="13"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G95" s="25" t="str">
@@ -15112,11 +15133,11 @@
         <v>NA</v>
       </c>
       <c r="H95" s="26" t="str">
-        <f>IF(I95="NA","NA",$E$3+I95)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I95" s="31" t="str">
-        <f>IF(G95="NA","NA",G95*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15134,15 +15155,15 @@
         <v>A3</v>
       </c>
       <c r="D96" s="27">
-        <f>VLOOKUP(C96,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E96" s="27">
-        <f>$E$3+F96</f>
+        <f t="shared" si="12"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F96" s="26">
-        <f>IF($E$4="Yes",D96*$E$5,D96)</f>
+        <f t="shared" si="13"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G96" s="25">
@@ -15150,11 +15171,11 @@
         <v>6.3999999999999994E-3</v>
       </c>
       <c r="H96" s="26">
-        <f>IF(I96="NA","NA",$E$3+I96)</f>
+        <f t="shared" si="14"/>
         <v>5.1729211525340699E-2</v>
       </c>
       <c r="I96" s="31">
-        <f>IF(G96="NA","NA",G96*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>9.6292115253406967E-3</v>
       </c>
     </row>
@@ -15172,15 +15193,15 @@
         <v>Caa2</v>
       </c>
       <c r="D97" s="27">
-        <f>VLOOKUP(C97,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E97" s="27">
-        <f>$E$3+F97</f>
+        <f t="shared" si="12"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F97" s="26">
-        <f>IF($E$4="Yes",D97*$E$5,D97)</f>
+        <f t="shared" si="13"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G97" s="25" t="str">
@@ -15188,11 +15209,11 @@
         <v>NA</v>
       </c>
       <c r="H97" s="26" t="str">
-        <f>IF(I97="NA","NA",$E$3+I97)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I97" s="31" t="str">
-        <f>IF(G97="NA","NA",G97*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15210,15 +15231,15 @@
         <v>Caa2</v>
       </c>
       <c r="D98" s="27">
-        <f>VLOOKUP(C98,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E98" s="27">
-        <f>$E$3+F98</f>
+        <f t="shared" si="12"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F98" s="26">
-        <f>IF($E$4="Yes",D98*$E$5,D98)</f>
+        <f t="shared" si="13"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G98" s="25" t="str">
@@ -15226,11 +15247,11 @@
         <v>NA</v>
       </c>
       <c r="H98" s="26" t="str">
-        <f>IF(I98="NA","NA",$E$3+I98)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I98" s="31" t="str">
-        <f>IF(G98="NA","NA",G98*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15248,15 +15269,15 @@
         <v>A2</v>
       </c>
       <c r="D99" s="27">
-        <f>VLOOKUP(C99,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>8.3203732252395985E-3</v>
       </c>
       <c r="E99" s="27">
-        <f>$E$3+F99</f>
+        <f t="shared" si="12"/>
         <v>5.4618536524314573E-2</v>
       </c>
       <c r="F99" s="26">
-        <f>IF($E$4="Yes",D99*$E$5,D99)</f>
+        <f t="shared" si="13"/>
         <v>1.2518536524314576E-2</v>
       </c>
       <c r="G99" s="25" t="str">
@@ -15264,11 +15285,11 @@
         <v>NA</v>
       </c>
       <c r="H99" s="26" t="str">
-        <f>IF(I99="NA","NA",$E$3+I99)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I99" s="31" t="str">
-        <f>IF(G99="NA","NA",G99*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15286,15 +15307,15 @@
         <v>Baa3</v>
       </c>
       <c r="D100" s="27">
-        <f>VLOOKUP(C100,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E100" s="27">
-        <f>$E$3+F100</f>
+        <f t="shared" si="12"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F100" s="26">
-        <f>IF($E$4="Yes",D100*$E$5,D100)</f>
+        <f t="shared" si="13"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G100" s="25" t="str">
@@ -15302,11 +15323,11 @@
         <v>NA</v>
       </c>
       <c r="H100" s="26" t="str">
-        <f>IF(I100="NA","NA",$E$3+I100)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I100" s="31" t="str">
-        <f>IF(G100="NA","NA",G100*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15324,15 +15345,15 @@
         <v>Baa2</v>
       </c>
       <c r="D101" s="27">
-        <f>VLOOKUP(C101,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.87208397567891E-2</v>
       </c>
       <c r="E101" s="27">
-        <f>$E$3+F101</f>
+        <f t="shared" si="12"/>
         <v>7.0266707179707802E-2</v>
       </c>
       <c r="F101" s="26">
-        <f>IF($E$4="Yes",D101*$E$5,D101)</f>
+        <f t="shared" si="13"/>
         <v>2.8166707179707803E-2</v>
       </c>
       <c r="G101" s="25">
@@ -15340,11 +15361,11 @@
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="H101" s="26">
-        <f>IF(I101="NA","NA",$E$3+I101)</f>
+        <f t="shared" si="14"/>
         <v>6.7527136684102776E-2</v>
       </c>
       <c r="I101" s="31">
-        <f>IF(G101="NA","NA",G101*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>2.5427136684102777E-2</v>
       </c>
     </row>
@@ -15362,15 +15383,15 @@
         <v>B3</v>
       </c>
       <c r="D102" s="27">
-        <f>VLOOKUP(C102,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E102" s="27">
-        <f>$E$3+F102</f>
+        <f t="shared" si="12"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F102" s="26">
-        <f>IF($E$4="Yes",D102*$E$5,D102)</f>
+        <f t="shared" si="13"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G102" s="25" t="str">
@@ -15378,11 +15399,11 @@
         <v>NA</v>
       </c>
       <c r="H102" s="26" t="str">
-        <f>IF(I102="NA","NA",$E$3+I102)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I102" s="31" t="str">
-        <f>IF(G102="NA","NA",G102*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15400,15 +15421,15 @@
         <v>B2</v>
       </c>
       <c r="D103" s="27">
-        <f>VLOOKUP(C103,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="11"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E103" s="27">
-        <f>$E$3+F103</f>
+        <f t="shared" si="12"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F103" s="26">
-        <f>IF($E$4="Yes",D103*$E$5,D103)</f>
+        <f t="shared" si="13"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G103" s="25" t="str">
@@ -15416,11 +15437,11 @@
         <v>NA</v>
       </c>
       <c r="H103" s="26" t="str">
-        <f>IF(I103="NA","NA",$E$3+I103)</f>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="I103" s="31" t="str">
-        <f>IF(G103="NA","NA",G103*$E$5)</f>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
     </row>
@@ -15438,15 +15459,15 @@
         <v>B1</v>
       </c>
       <c r="D104" s="27">
-        <f>VLOOKUP(C104,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" ref="D104:D135" si="16">VLOOKUP(C104,$J$9:$K$31,2,FALSE)/10000</f>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E104" s="27">
-        <f>$E$3+F104</f>
+        <f t="shared" ref="E104:E135" si="17">$E$3+F104</f>
         <v>0.10869165956684003</v>
       </c>
       <c r="F104" s="26">
-        <f>IF($E$4="Yes",D104*$E$5,D104)</f>
+        <f t="shared" ref="F104:F135" si="18">IF($E$4="Yes",D104*$E$5,D104)</f>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G104" s="25" t="str">
@@ -15454,11 +15475,11 @@
         <v>NA</v>
       </c>
       <c r="H104" s="26" t="str">
-        <f>IF(I104="NA","NA",$E$3+I104)</f>
+        <f t="shared" ref="H104:H135" si="19">IF(I104="NA","NA",$E$3+I104)</f>
         <v>NA</v>
       </c>
       <c r="I104" s="31" t="str">
-        <f>IF(G104="NA","NA",G104*$E$5)</f>
+        <f t="shared" ref="I104:I135" si="20">IF(G104="NA","NA",G104*$E$5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -15476,15 +15497,15 @@
         <v>Baa3</v>
       </c>
       <c r="D105" s="27">
-        <f>VLOOKUP(C105,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E105" s="27">
-        <f>$E$3+F105</f>
+        <f t="shared" si="17"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F105" s="26">
-        <f>IF($E$4="Yes",D105*$E$5,D105)</f>
+        <f t="shared" si="18"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G105" s="25" t="str">
@@ -15492,11 +15513,11 @@
         <v>NA</v>
       </c>
       <c r="H105" s="26" t="str">
-        <f>IF(I105="NA","NA",$E$3+I105)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I105" s="31" t="str">
-        <f>IF(G105="NA","NA",G105*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -15514,15 +15535,15 @@
         <v>Ba1</v>
       </c>
       <c r="D106" s="27">
-        <f>VLOOKUP(C106,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.4614437458000481E-2</v>
       </c>
       <c r="E106" s="27">
-        <f>$E$3+F106</f>
+        <f t="shared" si="17"/>
         <v>7.913400388443062E-2</v>
       </c>
       <c r="F106" s="26">
-        <f>IF($E$4="Yes",D106*$E$5,D106)</f>
+        <f t="shared" si="18"/>
         <v>3.7034003884430629E-2</v>
       </c>
       <c r="G106" s="25">
@@ -15530,11 +15551,11 @@
         <v>1.43E-2</v>
       </c>
       <c r="H106" s="26">
-        <f>IF(I106="NA","NA",$E$3+I106)</f>
+        <f t="shared" si="19"/>
         <v>6.3615269501933122E-2</v>
       </c>
       <c r="I106" s="31">
-        <f>IF(G106="NA","NA",G106*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>2.151526950193312E-2</v>
       </c>
     </row>
@@ -15552,15 +15573,15 @@
         <v>Caa3</v>
       </c>
       <c r="D107" s="27">
-        <f>VLOOKUP(C107,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>9.8342189092762475E-2</v>
       </c>
       <c r="E107" s="27">
-        <f>$E$3+F107</f>
+        <f t="shared" si="17"/>
         <v>0.1900621469748848</v>
       </c>
       <c r="F107" s="26">
-        <f>IF($E$4="Yes",D107*$E$5,D107)</f>
+        <f t="shared" si="18"/>
         <v>0.1479621469748848</v>
       </c>
       <c r="G107" s="25" t="str">
@@ -15568,11 +15589,11 @@
         <v>NA</v>
       </c>
       <c r="H107" s="26" t="str">
-        <f>IF(I107="NA","NA",$E$3+I107)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I107" s="31" t="str">
-        <f>IF(G107="NA","NA",G107*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -15590,15 +15611,15 @@
         <v>B1</v>
       </c>
       <c r="D108" s="27">
-        <f>VLOOKUP(C108,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E108" s="27">
-        <f>$E$3+F108</f>
+        <f t="shared" si="17"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F108" s="26">
-        <f>IF($E$4="Yes",D108*$E$5,D108)</f>
+        <f t="shared" si="18"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G108" s="25" t="str">
@@ -15606,11 +15627,11 @@
         <v>NA</v>
       </c>
       <c r="H108" s="26" t="str">
-        <f>IF(I108="NA","NA",$E$3+I108)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I108" s="31" t="str">
-        <f>IF(G108="NA","NA",G108*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -15628,15 +15649,15 @@
         <v>Ba3</v>
       </c>
       <c r="D109" s="27">
-        <f>VLOOKUP(C109,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E109" s="27">
-        <f>$E$3+F109</f>
+        <f t="shared" si="17"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F109" s="26">
-        <f>IF($E$4="Yes",D109*$E$5,D109)</f>
+        <f t="shared" si="18"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G109" s="25" t="str">
@@ -15644,11 +15665,11 @@
         <v>NA</v>
       </c>
       <c r="H109" s="26" t="str">
-        <f>IF(I109="NA","NA",$E$3+I109)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I109" s="31" t="str">
-        <f>IF(G109="NA","NA",G109*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -15666,15 +15687,15 @@
         <v>Aaa</v>
       </c>
       <c r="D110" s="27">
-        <f>VLOOKUP(C110,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E110" s="27">
-        <f>$E$3+F110</f>
+        <f t="shared" si="17"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F110" s="26">
-        <f>IF($E$4="Yes",D110*$E$5,D110)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G110" s="25">
@@ -15682,11 +15703,11 @@
         <v>8.0000000000000015E-4</v>
       </c>
       <c r="H110" s="26">
-        <f>IF(I110="NA","NA",$E$3+I110)</f>
+        <f t="shared" si="19"/>
         <v>4.3303651440667584E-2</v>
       </c>
       <c r="I110" s="31">
-        <f>IF(G110="NA","NA",G110*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>1.2036514406675875E-3</v>
       </c>
     </row>
@@ -15704,15 +15725,15 @@
         <v>Aaa</v>
       </c>
       <c r="D111" s="27">
-        <f>VLOOKUP(C111,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E111" s="27">
-        <f>$E$3+F111</f>
+        <f t="shared" si="17"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F111" s="26">
-        <f>IF($E$4="Yes",D111*$E$5,D111)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G111" s="25">
@@ -15720,11 +15741,11 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H111" s="26">
-        <f>IF(I111="NA","NA",$E$3+I111)</f>
+        <f t="shared" si="19"/>
         <v>4.3002738580500688E-2</v>
       </c>
       <c r="I111" s="31">
-        <f>IF(G111="NA","NA",G111*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>9.0273858050069053E-4</v>
       </c>
     </row>
@@ -15742,15 +15763,15 @@
         <v>B2</v>
       </c>
       <c r="D112" s="27">
-        <f>VLOOKUP(C112,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E112" s="27">
-        <f>$E$3+F112</f>
+        <f t="shared" si="17"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F112" s="26">
-        <f>IF($E$4="Yes",D112*$E$5,D112)</f>
+        <f t="shared" si="18"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G112" s="25">
@@ -15758,11 +15779,11 @@
         <v>6.2000000000000006E-2</v>
       </c>
       <c r="H112" s="26">
-        <f>IF(I112="NA","NA",$E$3+I112)</f>
+        <f t="shared" si="19"/>
         <v>0.13538298665173804</v>
       </c>
       <c r="I112" s="31">
-        <f>IF(G112="NA","NA",G112*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>9.3282986651738023E-2</v>
       </c>
     </row>
@@ -15780,15 +15801,15 @@
         <v>Caa3</v>
       </c>
       <c r="D113" s="27">
-        <f>VLOOKUP(C113,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>9.8342189092762475E-2</v>
       </c>
       <c r="E113" s="27">
-        <f>$E$3+F113</f>
+        <f t="shared" si="17"/>
         <v>0.1900621469748848</v>
       </c>
       <c r="F113" s="26">
-        <f>IF($E$4="Yes",D113*$E$5,D113)</f>
+        <f t="shared" si="18"/>
         <v>0.1479621469748848</v>
       </c>
       <c r="G113" s="25" t="str">
@@ -15796,11 +15817,11 @@
         <v>NA</v>
       </c>
       <c r="H113" s="26" t="str">
-        <f>IF(I113="NA","NA",$E$3+I113)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I113" s="31" t="str">
-        <f>IF(G113="NA","NA",G113*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -15818,15 +15839,15 @@
         <v>B3</v>
       </c>
       <c r="D114" s="27">
-        <f>VLOOKUP(C114,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E114" s="27">
-        <f>$E$3+F114</f>
+        <f t="shared" si="17"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F114" s="26">
-        <f>IF($E$4="Yes",D114*$E$5,D114)</f>
+        <f t="shared" si="18"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G114" s="25">
@@ -15834,11 +15855,11 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="H114" s="26">
-        <f>IF(I114="NA","NA",$E$3+I114)</f>
+        <f t="shared" si="19"/>
         <v>0.13056838088906764</v>
       </c>
       <c r="I114" s="31">
-        <f>IF(G114="NA","NA",G114*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>8.8468380889067652E-2</v>
       </c>
     </row>
@@ -15856,15 +15877,15 @@
         <v>Aaa</v>
       </c>
       <c r="D115" s="27">
-        <f>VLOOKUP(C115,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E115" s="27">
-        <f>$E$3+F115</f>
+        <f t="shared" si="17"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F115" s="26">
-        <f>IF($E$4="Yes",D115*$E$5,D115)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G115" s="25">
@@ -15872,11 +15893,11 @@
         <v>5.0000000000000023E-4</v>
       </c>
       <c r="H115" s="26">
-        <f>IF(I115="NA","NA",$E$3+I115)</f>
+        <f t="shared" si="19"/>
         <v>4.285228215041724E-2</v>
       </c>
       <c r="I115" s="31">
-        <f>IF(G115="NA","NA",G115*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>7.5228215041724231E-4</v>
       </c>
     </row>
@@ -15894,15 +15915,15 @@
         <v>Ba1</v>
       </c>
       <c r="D116" s="27">
-        <f>VLOOKUP(C116,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.4614437458000481E-2</v>
       </c>
       <c r="E116" s="27">
-        <f>$E$3+F116</f>
+        <f t="shared" si="17"/>
         <v>7.913400388443062E-2</v>
       </c>
       <c r="F116" s="26">
-        <f>IF($E$4="Yes",D116*$E$5,D116)</f>
+        <f t="shared" si="18"/>
         <v>3.7034003884430629E-2</v>
       </c>
       <c r="G116" s="25">
@@ -15910,11 +15931,11 @@
         <v>1.49E-2</v>
       </c>
       <c r="H116" s="26">
-        <f>IF(I116="NA","NA",$E$3+I116)</f>
+        <f t="shared" si="19"/>
         <v>6.4518008082433811E-2</v>
       </c>
       <c r="I116" s="31">
-        <f>IF(G116="NA","NA",G116*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>2.2418008082433813E-2</v>
       </c>
     </row>
@@ -15932,15 +15953,15 @@
         <v>Caa2</v>
       </c>
       <c r="D117" s="27">
-        <f>VLOOKUP(C117,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E117" s="27">
-        <f>$E$3+F117</f>
+        <f t="shared" si="17"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F117" s="26">
-        <f>IF($E$4="Yes",D117*$E$5,D117)</f>
+        <f t="shared" si="18"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G117" s="25">
@@ -15948,11 +15969,11 @@
         <v>7.4700000000000003E-2</v>
       </c>
       <c r="H117" s="26">
-        <f>IF(I117="NA","NA",$E$3+I117)</f>
+        <f t="shared" si="19"/>
         <v>0.15449095327233597</v>
       </c>
       <c r="I117" s="31">
-        <f>IF(G117="NA","NA",G117*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>0.11239095327233596</v>
       </c>
     </row>
@@ -15970,15 +15991,15 @@
         <v>Baa3</v>
       </c>
       <c r="D118" s="27">
-        <f>VLOOKUP(C118,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E118" s="27">
-        <f>$E$3+F118</f>
+        <f t="shared" si="17"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F118" s="26">
-        <f>IF($E$4="Yes",D118*$E$5,D118)</f>
+        <f t="shared" si="18"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G118" s="25">
@@ -15986,11 +16007,11 @@
         <v>2.7900000000000001E-2</v>
       </c>
       <c r="H118" s="26">
-        <f>IF(I118="NA","NA",$E$3+I118)</f>
+        <f t="shared" si="19"/>
         <v>8.4077343993282094E-2</v>
       </c>
       <c r="I118" s="31">
-        <f>IF(G118="NA","NA",G118*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>4.1977343993282103E-2</v>
       </c>
     </row>
@@ -16008,15 +16029,15 @@
         <v>B2</v>
       </c>
       <c r="D119" s="27">
-        <f>VLOOKUP(C119,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E119" s="27">
-        <f>$E$3+F119</f>
+        <f t="shared" si="17"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F119" s="26">
-        <f>IF($E$4="Yes",D119*$E$5,D119)</f>
+        <f t="shared" si="18"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G119" s="25" t="str">
@@ -16024,11 +16045,11 @@
         <v>NA</v>
       </c>
       <c r="H119" s="26" t="str">
-        <f>IF(I119="NA","NA",$E$3+I119)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I119" s="31" t="str">
-        <f>IF(G119="NA","NA",G119*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -16046,15 +16067,15 @@
         <v>Baa3</v>
       </c>
       <c r="D120" s="27">
-        <f>VLOOKUP(C120,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E120" s="27">
-        <f>$E$3+F120</f>
+        <f t="shared" si="17"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F120" s="26">
-        <f>IF($E$4="Yes",D120*$E$5,D120)</f>
+        <f t="shared" si="18"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G120" s="25" t="str">
@@ -16062,11 +16083,11 @@
         <v>NA</v>
       </c>
       <c r="H120" s="26" t="str">
-        <f>IF(I120="NA","NA",$E$3+I120)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I120" s="31" t="str">
-        <f>IF(G120="NA","NA",G120*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -16084,15 +16105,15 @@
         <v>Baa1</v>
       </c>
       <c r="D121" s="27">
-        <f>VLOOKUP(C121,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E121" s="27">
-        <f>$E$3+F121</f>
+        <f t="shared" si="17"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F121" s="26">
-        <f>IF($E$4="Yes",D121*$E$5,D121)</f>
+        <f t="shared" si="18"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G121" s="25">
@@ -16100,11 +16121,11 @@
         <v>1.2199999999999999E-2</v>
       </c>
       <c r="H121" s="26">
-        <f>IF(I121="NA","NA",$E$3+I121)</f>
+        <f t="shared" si="19"/>
         <v>6.0455684470180703E-2</v>
       </c>
       <c r="I121" s="31">
-        <f>IF(G121="NA","NA",G121*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>1.8355684470180704E-2</v>
       </c>
     </row>
@@ -16122,15 +16143,15 @@
         <v>Baa2</v>
       </c>
       <c r="D122" s="27">
-        <f>VLOOKUP(C122,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.87208397567891E-2</v>
       </c>
       <c r="E122" s="27">
-        <f>$E$3+F122</f>
+        <f t="shared" si="17"/>
         <v>7.0266707179707802E-2</v>
       </c>
       <c r="F122" s="26">
-        <f>IF($E$4="Yes",D122*$E$5,D122)</f>
+        <f t="shared" si="18"/>
         <v>2.8166707179707803E-2</v>
       </c>
       <c r="G122" s="25">
@@ -16138,11 +16159,11 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H122" s="26">
-        <f>IF(I122="NA","NA",$E$3+I122)</f>
+        <f t="shared" si="19"/>
         <v>5.6844730148177938E-2</v>
       </c>
       <c r="I122" s="31">
-        <f>IF(G122="NA","NA",G122*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>1.4744730148177943E-2</v>
       </c>
     </row>
@@ -16160,15 +16181,15 @@
         <v>A2</v>
       </c>
       <c r="D123" s="27">
-        <f>VLOOKUP(C123,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>8.3203732252395985E-3</v>
       </c>
       <c r="E123" s="27">
-        <f>$E$3+F123</f>
+        <f t="shared" si="17"/>
         <v>5.4618536524314573E-2</v>
       </c>
       <c r="F123" s="26">
-        <f>IF($E$4="Yes",D123*$E$5,D123)</f>
+        <f t="shared" si="18"/>
         <v>1.2518536524314576E-2</v>
       </c>
       <c r="G123" s="25">
@@ -16176,11 +16197,11 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="H123" s="26">
-        <f>IF(I123="NA","NA",$E$3+I123)</f>
+        <f t="shared" si="19"/>
         <v>5.6092447997760697E-2</v>
       </c>
       <c r="I123" s="31">
-        <f>IF(G123="NA","NA",G123*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>1.39924479977607E-2</v>
       </c>
     </row>
@@ -16198,15 +16219,15 @@
         <v>A3</v>
       </c>
       <c r="D124" s="27">
-        <f>VLOOKUP(C124,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E124" s="27">
-        <f>$E$3+F124</f>
+        <f t="shared" si="17"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F124" s="26">
-        <f>IF($E$4="Yes",D124*$E$5,D124)</f>
+        <f t="shared" si="18"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G124" s="25">
@@ -16214,11 +16235,11 @@
         <v>3.7999999999999996E-3</v>
       </c>
       <c r="H124" s="26">
-        <f>IF(I124="NA","NA",$E$3+I124)</f>
+        <f t="shared" si="19"/>
         <v>4.7817344343171038E-2</v>
       </c>
       <c r="I124" s="31">
-        <f>IF(G124="NA","NA",G124*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>5.7173443431710385E-3</v>
       </c>
     </row>
@@ -16236,15 +16257,15 @@
         <v>Aa2</v>
       </c>
       <c r="D125" s="27">
-        <f>VLOOKUP(C125,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>4.8535510480564323E-3</v>
       </c>
       <c r="E125" s="27">
-        <f>$E$3+F125</f>
+        <f t="shared" si="17"/>
         <v>4.9402479639183504E-2</v>
       </c>
       <c r="F125" s="26">
-        <f>IF($E$4="Yes",D125*$E$5,D125)</f>
+        <f t="shared" si="18"/>
         <v>7.3024796391835027E-3</v>
       </c>
       <c r="G125" s="25">
@@ -16252,11 +16273,11 @@
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="H125" s="26">
-        <f>IF(I125="NA","NA",$E$3+I125)</f>
+        <f t="shared" si="19"/>
         <v>4.9773277934255865E-2</v>
       </c>
       <c r="I125" s="31">
-        <f>IF(G125="NA","NA",G125*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>7.673277934255868E-3</v>
       </c>
     </row>
@@ -16274,15 +16295,15 @@
         <v>A3</v>
       </c>
       <c r="D126" s="27">
-        <f>VLOOKUP(C126,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E126" s="27">
-        <f>$E$3+F126</f>
+        <f t="shared" si="17"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F126" s="26">
-        <f>IF($E$4="Yes",D126*$E$5,D126)</f>
+        <f t="shared" si="18"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G126" s="25" t="str">
@@ -16290,11 +16311,11 @@
         <v>NA</v>
       </c>
       <c r="H126" s="26" t="str">
-        <f>IF(I126="NA","NA",$E$3+I126)</f>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="I126" s="31" t="str">
-        <f>IF(G126="NA","NA",G126*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>NA</v>
       </c>
     </row>
@@ -16312,15 +16333,15 @@
         <v>Baa3</v>
       </c>
       <c r="D127" s="27">
-        <f>VLOOKUP(C127,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.160985823777507E-2</v>
       </c>
       <c r="E127" s="27">
-        <f>$E$3+F127</f>
+        <f t="shared" si="17"/>
         <v>7.4613421250650361E-2</v>
       </c>
       <c r="F127" s="26">
-        <f>IF($E$4="Yes",D127*$E$5,D127)</f>
+        <f t="shared" si="18"/>
         <v>3.2513421250650362E-2</v>
       </c>
       <c r="G127" s="25">
@@ -16328,11 +16349,11 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H127" s="26">
-        <f>IF(I127="NA","NA",$E$3+I127)</f>
+        <f t="shared" si="19"/>
         <v>7.971410752086211E-2</v>
       </c>
       <c r="I127" s="31">
-        <f>IF(G127="NA","NA",G127*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>3.7614107520862104E-2</v>
       </c>
     </row>
@@ -16350,15 +16371,15 @@
         <v>B2</v>
       </c>
       <c r="D128" s="27">
-        <f>VLOOKUP(C128,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E128" s="27">
-        <f>$E$3+F128</f>
+        <f t="shared" si="17"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F128" s="26">
-        <f>IF($E$4="Yes",D128*$E$5,D128)</f>
+        <f t="shared" si="18"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G128" s="25">
@@ -16366,11 +16387,11 @@
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="H128" s="26">
-        <f>IF(I128="NA","NA",$E$3+I128)</f>
+        <f t="shared" si="19"/>
         <v>0.12124008222389386</v>
       </c>
       <c r="I128" s="31">
-        <f>IF(G128="NA","NA",G128*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>7.9140082223893862E-2</v>
       </c>
     </row>
@@ -16388,15 +16409,15 @@
         <v>Aa3</v>
       </c>
       <c r="D129" s="27">
-        <f>VLOOKUP(C129,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E129" s="27">
-        <f>$E$3+F129</f>
+        <f t="shared" si="17"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F129" s="26">
-        <f>IF($E$4="Yes",D129*$E$5,D129)</f>
+        <f t="shared" si="18"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G129" s="25">
@@ -16404,11 +16425,11 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="H129" s="26">
-        <f>IF(I129="NA","NA",$E$3+I129)</f>
+        <f t="shared" si="19"/>
         <v>5.6393360857927594E-2</v>
       </c>
       <c r="I129" s="31">
-        <f>IF(G129="NA","NA",G129*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>1.4293360857927599E-2</v>
       </c>
     </row>
@@ -16426,15 +16447,15 @@
         <v>B3</v>
       </c>
       <c r="D130" s="27">
-        <f>VLOOKUP(C130,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E130" s="27">
-        <f>$E$3+F130</f>
+        <f t="shared" si="17"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F130" s="26">
-        <f>IF($E$4="Yes",D130*$E$5,D130)</f>
+        <f t="shared" si="18"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G130" s="25">
@@ -16442,11 +16463,11 @@
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="H130" s="26">
-        <f>IF(I130="NA","NA",$E$3+I130)</f>
+        <f t="shared" si="19"/>
         <v>0.15734962544392148</v>
       </c>
       <c r="I130" s="31">
-        <f>IF(G130="NA","NA",G130*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>0.11524962544392148</v>
       </c>
     </row>
@@ -16464,15 +16485,15 @@
         <v>Ba2</v>
       </c>
       <c r="D131" s="27">
-        <f>VLOOKUP(C131,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E131" s="27">
-        <f>$E$3+F131</f>
+        <f t="shared" si="17"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F131" s="26">
-        <f>IF($E$4="Yes",D131*$E$5,D131)</f>
+        <f t="shared" si="18"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G131" s="25">
@@ -16480,11 +16501,11 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="H131" s="26">
-        <f>IF(I131="NA","NA",$E$3+I131)</f>
+        <f t="shared" si="19"/>
         <v>7.4147219607774512E-2</v>
       </c>
       <c r="I131" s="31">
-        <f>IF(G131="NA","NA",G131*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>3.2047219607774506E-2</v>
       </c>
     </row>
@@ -16502,15 +16523,15 @@
         <v>Ba1</v>
       </c>
       <c r="D132" s="27">
-        <f>VLOOKUP(C132,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>2.4614437458000481E-2</v>
       </c>
       <c r="E132" s="27">
-        <f>$E$3+F132</f>
+        <f t="shared" si="17"/>
         <v>7.913400388443062E-2</v>
       </c>
       <c r="F132" s="26">
-        <f>IF($E$4="Yes",D132*$E$5,D132)</f>
+        <f t="shared" si="18"/>
         <v>3.7034003884430629E-2</v>
       </c>
       <c r="G132" s="25" t="e">
@@ -16518,11 +16539,11 @@
         <v>#N/A</v>
       </c>
       <c r="H132" s="26" t="e">
-        <f>IF(I132="NA","NA",$E$3+I132)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I132" s="31" t="e">
-        <f>IF(G132="NA","NA",G132*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16540,15 +16561,15 @@
         <v>Aaa</v>
       </c>
       <c r="D133" s="27">
-        <f>VLOOKUP(C133,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E133" s="27">
-        <f>$E$3+F133</f>
+        <f t="shared" si="17"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F133" s="26">
-        <f>IF($E$4="Yes",D133*$E$5,D133)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G133" s="25" t="e">
@@ -16556,11 +16577,11 @@
         <v>#N/A</v>
       </c>
       <c r="H133" s="26" t="e">
-        <f>IF(I133="NA","NA",$E$3+I133)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I133" s="31" t="e">
-        <f>IF(G133="NA","NA",G133*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16578,15 +16599,15 @@
         <v>A3</v>
       </c>
       <c r="D134" s="27">
-        <f>VLOOKUP(C134,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E134" s="27">
-        <f>$E$3+F134</f>
+        <f t="shared" si="17"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F134" s="26">
-        <f>IF($E$4="Yes",D134*$E$5,D134)</f>
+        <f t="shared" si="18"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G134" s="25">
@@ -16594,11 +16615,11 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H134" s="26">
-        <f>IF(I134="NA","NA",$E$3+I134)</f>
+        <f t="shared" si="19"/>
         <v>4.8720082923671727E-2</v>
       </c>
       <c r="I134" s="31">
-        <f>IF(G134="NA","NA",G134*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>6.6200829236717296E-3</v>
       </c>
     </row>
@@ -16616,15 +16637,15 @@
         <v>A3</v>
       </c>
       <c r="D135" s="27">
-        <f>VLOOKUP(C135,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="16"/>
         <v>1.1787195402422766E-2</v>
       </c>
       <c r="E135" s="27">
-        <f>$E$3+F135</f>
+        <f t="shared" si="17"/>
         <v>5.9834593409445649E-2</v>
       </c>
       <c r="F135" s="26">
-        <f>IF($E$4="Yes",D135*$E$5,D135)</f>
+        <f t="shared" si="18"/>
         <v>1.7734593409445651E-2</v>
       </c>
       <c r="G135" s="25">
@@ -16632,11 +16653,11 @@
         <v>5.3E-3</v>
       </c>
       <c r="H135" s="26">
-        <f>IF(I135="NA","NA",$E$3+I135)</f>
+        <f t="shared" si="19"/>
         <v>5.0074190794422761E-2</v>
       </c>
       <c r="I135" s="31">
-        <f>IF(G135="NA","NA",G135*$E$5)</f>
+        <f t="shared" si="20"/>
         <v>7.9741907944227645E-3</v>
       </c>
     </row>
@@ -16654,15 +16675,15 @@
         <v>Caa1</v>
       </c>
       <c r="D136" s="27">
-        <f>VLOOKUP(C136,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" ref="D136:D164" si="21">VLOOKUP(C136,$J$9:$K$31,2,FALSE)/10000</f>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E136" s="27">
-        <f>$E$3+F136</f>
+        <f t="shared" ref="E136:E164" si="22">$E$3+F136</f>
         <v>0.15302814309045415</v>
       </c>
       <c r="F136" s="26">
-        <f>IF($E$4="Yes",D136*$E$5,D136)</f>
+        <f t="shared" ref="F136:F164" si="23">IF($E$4="Yes",D136*$E$5,D136)</f>
         <v>0.11092814309045415</v>
       </c>
       <c r="G136" s="25" t="e">
@@ -16670,11 +16691,11 @@
         <v>#N/A</v>
       </c>
       <c r="H136" s="26" t="e">
-        <f>IF(I136="NA","NA",$E$3+I136)</f>
+        <f t="shared" ref="H136:H164" si="24">IF(I136="NA","NA",$E$3+I136)</f>
         <v>#N/A</v>
       </c>
       <c r="I136" s="31" t="e">
-        <f>IF(G136="NA","NA",G136*$E$5)</f>
+        <f t="shared" ref="I136:I164" si="25">IF(G136="NA","NA",G136*$E$5)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16692,15 +16713,15 @@
         <v>Ba2</v>
       </c>
       <c r="D137" s="27">
-        <f>VLOOKUP(C137,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E137" s="27">
-        <f>$E$3+F137</f>
+        <f t="shared" si="22"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F137" s="26">
-        <f>IF($E$4="Yes",D137*$E$5,D137)</f>
+        <f t="shared" si="23"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G137" s="25">
@@ -16708,11 +16729,11 @@
         <v>2.8399999999999998E-2</v>
       </c>
       <c r="H137" s="26">
-        <f>IF(I137="NA","NA",$E$3+I137)</f>
+        <f t="shared" si="24"/>
         <v>8.4829626143699349E-2</v>
       </c>
       <c r="I137" s="31">
-        <f>IF(G137="NA","NA",G137*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>4.2729626143699344E-2</v>
       </c>
     </row>
@@ -16730,15 +16751,15 @@
         <v>Baa1</v>
       </c>
       <c r="D138" s="27">
-        <f>VLOOKUP(C138,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E138" s="27">
-        <f>$E$3+F138</f>
+        <f t="shared" si="22"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F138" s="26">
-        <f>IF($E$4="Yes",D138*$E$5,D138)</f>
+        <f t="shared" si="23"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G138" s="25">
@@ -16746,11 +16767,11 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H138" s="26">
-        <f>IF(I138="NA","NA",$E$3+I138)</f>
+        <f t="shared" si="24"/>
         <v>4.9171452213922072E-2</v>
       </c>
       <c r="I138" s="31">
-        <f>IF(G138="NA","NA",G138*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>7.0714522139220751E-3</v>
       </c>
     </row>
@@ -16768,15 +16789,15 @@
         <v>Ca</v>
       </c>
       <c r="D139" s="27">
-        <f>VLOOKUP(C139,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>0.11798751476346708</v>
       </c>
       <c r="E139" s="27">
-        <f>$E$3+F139</f>
+        <f t="shared" si="22"/>
         <v>0.21961980265729422</v>
       </c>
       <c r="F139" s="26">
-        <f>IF($E$4="Yes",D139*$E$5,D139)</f>
+        <f t="shared" si="23"/>
         <v>0.17751980265729422</v>
       </c>
       <c r="G139" s="25">
@@ -16784,11 +16805,11 @@
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="H139" s="26">
-        <f>IF(I139="NA","NA",$E$3+I139)</f>
+        <f t="shared" si="24"/>
         <v>0.1126640657091373</v>
       </c>
       <c r="I139" s="31">
-        <f>IF(G139="NA","NA",G139*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>7.05640657091373E-2</v>
       </c>
     </row>
@@ -16806,15 +16827,15 @@
         <v>Ba2</v>
       </c>
       <c r="D140" s="27">
-        <f>VLOOKUP(C140,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E140" s="27">
-        <f>$E$3+F140</f>
+        <f t="shared" si="22"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F140" s="26">
-        <f>IF($E$4="Yes",D140*$E$5,D140)</f>
+        <f t="shared" si="23"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G140" s="25" t="e">
@@ -16822,11 +16843,11 @@
         <v>#N/A</v>
       </c>
       <c r="H140" s="26" t="e">
-        <f>IF(I140="NA","NA",$E$3+I140)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I140" s="31" t="e">
-        <f>IF(G140="NA","NA",G140*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16844,15 +16865,15 @@
         <v>B3</v>
       </c>
       <c r="D141" s="27">
-        <f>VLOOKUP(C141,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E141" s="27">
-        <f>$E$3+F141</f>
+        <f t="shared" si="22"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F141" s="26">
-        <f>IF($E$4="Yes",D141*$E$5,D141)</f>
+        <f t="shared" si="23"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G141" s="25" t="e">
@@ -16860,11 +16881,11 @@
         <v>#N/A</v>
       </c>
       <c r="H141" s="26" t="e">
-        <f>IF(I141="NA","NA",$E$3+I141)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I141" s="31" t="e">
-        <f>IF(G141="NA","NA",G141*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16882,15 +16903,15 @@
         <v>Caa1</v>
       </c>
       <c r="D142" s="27">
-        <f>VLOOKUP(C142,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E142" s="27">
-        <f>$E$3+F142</f>
+        <f t="shared" si="22"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F142" s="26">
-        <f>IF($E$4="Yes",D142*$E$5,D142)</f>
+        <f t="shared" si="23"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G142" s="25" t="e">
@@ -16898,11 +16919,11 @@
         <v>#N/A</v>
       </c>
       <c r="H142" s="26" t="e">
-        <f>IF(I142="NA","NA",$E$3+I142)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I142" s="31" t="e">
-        <f>IF(G142="NA","NA",G142*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16920,15 +16941,15 @@
         <v>B2</v>
       </c>
       <c r="D143" s="27">
-        <f>VLOOKUP(C143,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>5.4082425964057379E-2</v>
       </c>
       <c r="E143" s="27">
-        <f>$E$3+F143</f>
+        <f t="shared" si="22"/>
         <v>0.12347048740804473</v>
       </c>
       <c r="F143" s="26">
-        <f>IF($E$4="Yes",D143*$E$5,D143)</f>
+        <f t="shared" si="23"/>
         <v>8.1370487408044728E-2</v>
       </c>
       <c r="G143" s="25" t="e">
@@ -16936,11 +16957,11 @@
         <v>#N/A</v>
       </c>
       <c r="H143" s="26" t="e">
-        <f>IF(I143="NA","NA",$E$3+I143)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I143" s="31" t="e">
-        <f>IF(G143="NA","NA",G143*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16958,15 +16979,15 @@
         <v>Aaa</v>
       </c>
       <c r="D144" s="27">
-        <f>VLOOKUP(C144,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E144" s="27">
-        <f>$E$3+F144</f>
+        <f t="shared" si="22"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F144" s="26">
-        <f>IF($E$4="Yes",D144*$E$5,D144)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G144" s="25">
@@ -16974,11 +16995,11 @@
         <v>8.0000000000000015E-4</v>
       </c>
       <c r="H144" s="26">
-        <f>IF(I144="NA","NA",$E$3+I144)</f>
+        <f t="shared" si="24"/>
         <v>4.3303651440667584E-2</v>
       </c>
       <c r="I144" s="31">
-        <f>IF(G144="NA","NA",G144*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>1.2036514406675875E-3</v>
       </c>
     </row>
@@ -16996,15 +17017,15 @@
         <v>Aaa</v>
       </c>
       <c r="D145" s="27">
-        <f>VLOOKUP(C145,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E145" s="27">
-        <f>$E$3+F145</f>
+        <f t="shared" si="22"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F145" s="26">
-        <f>IF($E$4="Yes",D145*$E$5,D145)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G145" s="25">
@@ -17012,11 +17033,11 @@
         <v>0</v>
       </c>
       <c r="H145" s="26">
-        <f>IF(I145="NA","NA",$E$3+I145)</f>
+        <f t="shared" si="24"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="I145" s="31">
-        <f>IF(G145="NA","NA",G145*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -17034,15 +17055,15 @@
         <v>Aa3</v>
       </c>
       <c r="D146" s="27">
-        <f>VLOOKUP(C146,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E146" s="27">
-        <f>$E$3+F146</f>
+        <f t="shared" si="22"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F146" s="26">
-        <f>IF($E$4="Yes",D146*$E$5,D146)</f>
+        <f t="shared" si="23"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G146" s="25" t="e">
@@ -17050,11 +17071,11 @@
         <v>#N/A</v>
       </c>
       <c r="H146" s="26" t="e">
-        <f>IF(I146="NA","NA",$E$3+I146)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I146" s="31" t="e">
-        <f>IF(G146="NA","NA",G146*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17072,15 +17093,15 @@
         <v>B3</v>
       </c>
       <c r="D147" s="27">
-        <f>VLOOKUP(C147,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E147" s="27">
-        <f>$E$3+F147</f>
+        <f t="shared" si="22"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F147" s="26">
-        <f>IF($E$4="Yes",D147*$E$5,D147)</f>
+        <f t="shared" si="23"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G147" s="25" t="e">
@@ -17088,11 +17109,11 @@
         <v>#N/A</v>
       </c>
       <c r="H147" s="26" t="e">
-        <f>IF(I147="NA","NA",$E$3+I147)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I147" s="31" t="e">
-        <f>IF(G147="NA","NA",G147*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17110,15 +17131,15 @@
         <v>B1</v>
       </c>
       <c r="D148" s="27">
-        <f>VLOOKUP(C148,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E148" s="27">
-        <f>$E$3+F148</f>
+        <f t="shared" si="22"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F148" s="26">
-        <f>IF($E$4="Yes",D148*$E$5,D148)</f>
+        <f t="shared" si="23"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G148" s="25" t="e">
@@ -17126,11 +17147,11 @@
         <v>#N/A</v>
       </c>
       <c r="H148" s="26" t="e">
-        <f>IF(I148="NA","NA",$E$3+I148)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I148" s="31" t="e">
-        <f>IF(G148="NA","NA",G148*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17148,15 +17169,15 @@
         <v>Baa1</v>
       </c>
       <c r="D149" s="27">
-        <f>VLOOKUP(C149,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E149" s="27">
-        <f>$E$3+F149</f>
+        <f t="shared" si="22"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F149" s="26">
-        <f>IF($E$4="Yes",D149*$E$5,D149)</f>
+        <f t="shared" si="23"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G149" s="25">
@@ -17164,11 +17185,11 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="H149" s="26">
-        <f>IF(I149="NA","NA",$E$3+I149)</f>
+        <f t="shared" si="24"/>
         <v>5.0375103654589658E-2</v>
       </c>
       <c r="I149" s="31">
-        <f>IF(G149="NA","NA",G149*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>8.2751036545896609E-3</v>
       </c>
     </row>
@@ -17186,15 +17207,15 @@
         <v>B3</v>
       </c>
       <c r="D150" s="27">
-        <f>VLOOKUP(C150,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E150" s="27">
-        <f>$E$3+F150</f>
+        <f t="shared" si="22"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F150" s="26">
-        <f>IF($E$4="Yes",D150*$E$5,D150)</f>
+        <f t="shared" si="23"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G150" s="25" t="e">
@@ -17202,11 +17223,11 @@
         <v>#N/A</v>
       </c>
       <c r="H150" s="26" t="e">
-        <f>IF(I150="NA","NA",$E$3+I150)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I150" s="31" t="e">
-        <f>IF(G150="NA","NA",G150*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17224,15 +17245,15 @@
         <v>Ba2</v>
       </c>
       <c r="D151" s="27">
-        <f>VLOOKUP(C151,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E151" s="27">
-        <f>$E$3+F151</f>
+        <f t="shared" si="22"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F151" s="26">
-        <f>IF($E$4="Yes",D151*$E$5,D151)</f>
+        <f t="shared" si="23"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G151" s="25" t="e">
@@ -17240,11 +17261,11 @@
         <v>#N/A</v>
       </c>
       <c r="H151" s="26" t="e">
-        <f>IF(I151="NA","NA",$E$3+I151)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I151" s="31" t="e">
-        <f>IF(G151="NA","NA",G151*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17262,15 +17283,15 @@
         <v>Caa1</v>
       </c>
       <c r="D152" s="27">
-        <f>VLOOKUP(C152,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>7.3727751634761987E-2</v>
       </c>
       <c r="E152" s="27">
-        <f>$E$3+F152</f>
+        <f t="shared" si="22"/>
         <v>0.15302814309045415</v>
       </c>
       <c r="F152" s="26">
-        <f>IF($E$4="Yes",D152*$E$5,D152)</f>
+        <f t="shared" si="23"/>
         <v>0.11092814309045415</v>
       </c>
       <c r="G152" s="25">
@@ -17278,11 +17299,11 @@
         <v>7.2500000000000009E-2</v>
       </c>
       <c r="H152" s="26">
-        <f>IF(I152="NA","NA",$E$3+I152)</f>
+        <f t="shared" si="24"/>
         <v>0.15118091181050008</v>
       </c>
       <c r="I152" s="31">
-        <f>IF(G152="NA","NA",G152*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>0.1090809118105001</v>
       </c>
     </row>
@@ -17300,15 +17321,15 @@
         <v>B1</v>
       </c>
       <c r="D153" s="27">
-        <f>VLOOKUP(C153,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>4.4259763128705075E-2</v>
       </c>
       <c r="E153" s="27">
-        <f>$E$3+F153</f>
+        <f t="shared" si="22"/>
         <v>0.10869165956684003</v>
       </c>
       <c r="F153" s="26">
-        <f>IF($E$4="Yes",D153*$E$5,D153)</f>
+        <f t="shared" si="23"/>
         <v>6.6591659566840031E-2</v>
       </c>
       <c r="G153" s="25">
@@ -17316,11 +17337,11 @@
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="H153" s="26">
-        <f>IF(I153="NA","NA",$E$3+I153)</f>
+        <f t="shared" si="24"/>
         <v>9.6715684120291773E-2</v>
       </c>
       <c r="I153" s="31">
-        <f>IF(G153="NA","NA",G153*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>5.4615684120291767E-2</v>
       </c>
     </row>
@@ -17338,15 +17359,15 @@
         <v>Baa1</v>
       </c>
       <c r="D154" s="27">
-        <f>VLOOKUP(C154,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E154" s="27">
-        <f>$E$3+F154</f>
+        <f t="shared" si="22"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F154" s="26">
-        <f>IF($E$4="Yes",D154*$E$5,D154)</f>
+        <f t="shared" si="23"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G154" s="25" t="e">
@@ -17354,11 +17375,11 @@
         <v>#N/A</v>
       </c>
       <c r="H154" s="26" t="e">
-        <f>IF(I154="NA","NA",$E$3+I154)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I154" s="31" t="e">
-        <f>IF(G154="NA","NA",G154*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17376,15 +17397,15 @@
         <v>B3</v>
       </c>
       <c r="D155" s="27">
-        <f>VLOOKUP(C155,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>6.3905088799409676E-2</v>
       </c>
       <c r="E155" s="27">
-        <f>$E$3+F155</f>
+        <f t="shared" si="22"/>
         <v>0.13824931524924944</v>
       </c>
       <c r="F155" s="26">
-        <f>IF($E$4="Yes",D155*$E$5,D155)</f>
+        <f t="shared" si="23"/>
         <v>9.614931524924944E-2</v>
       </c>
       <c r="G155" s="25" t="e">
@@ -17392,11 +17413,11 @@
         <v>#N/A</v>
       </c>
       <c r="H155" s="26" t="e">
-        <f>IF(I155="NA","NA",$E$3+I155)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I155" s="31" t="e">
-        <f>IF(G155="NA","NA",G155*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17414,15 +17435,15 @@
         <v>Ca</v>
       </c>
       <c r="D156" s="27">
-        <f>VLOOKUP(C156,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>0.11798751476346708</v>
       </c>
       <c r="E156" s="27">
-        <f>$E$3+F156</f>
+        <f t="shared" si="22"/>
         <v>0.21961980265729422</v>
       </c>
       <c r="F156" s="26">
-        <f>IF($E$4="Yes",D156*$E$5,D156)</f>
+        <f t="shared" si="23"/>
         <v>0.17751980265729422</v>
       </c>
       <c r="G156" s="25" t="str">
@@ -17430,11 +17451,11 @@
         <v>NA</v>
       </c>
       <c r="H156" s="26" t="str">
-        <f>IF(I156="NA","NA",$E$3+I156)</f>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="I156" s="31" t="str">
-        <f>IF(G156="NA","NA",G156*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
     </row>
@@ -17452,15 +17473,15 @@
         <v>Aa2</v>
       </c>
       <c r="D157" s="27">
-        <f>VLOOKUP(C157,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>4.8535510480564323E-3</v>
       </c>
       <c r="E157" s="27">
-        <f>$E$3+F157</f>
+        <f t="shared" si="22"/>
         <v>4.9402479639183504E-2</v>
       </c>
       <c r="F157" s="26">
-        <f>IF($E$4="Yes",D157*$E$5,D157)</f>
+        <f t="shared" si="23"/>
         <v>7.3024796391835027E-3</v>
       </c>
       <c r="G157" s="25" t="e">
@@ -17468,11 +17489,11 @@
         <v>#N/A</v>
       </c>
       <c r="H157" s="26" t="e">
-        <f>IF(I157="NA","NA",$E$3+I157)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I157" s="31" t="e">
-        <f>IF(G157="NA","NA",G157*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17490,15 +17511,15 @@
         <v>Aa3</v>
       </c>
       <c r="D158" s="27">
-        <f>VLOOKUP(C158,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>5.8935977012113828E-3</v>
       </c>
       <c r="E158" s="27">
-        <f>$E$3+F158</f>
+        <f t="shared" si="22"/>
         <v>5.0967296704722824E-2</v>
       </c>
       <c r="F158" s="26">
-        <f>IF($E$4="Yes",D158*$E$5,D158)</f>
+        <f t="shared" si="23"/>
         <v>8.8672967047228254E-3</v>
       </c>
       <c r="G158" s="25">
@@ -17506,11 +17527,11 @@
         <v>2E-3</v>
       </c>
       <c r="H158" s="26">
-        <f>IF(I158="NA","NA",$E$3+I158)</f>
+        <f t="shared" si="24"/>
         <v>4.5109128601668963E-2</v>
       </c>
       <c r="I158" s="31">
-        <f>IF(G158="NA","NA",G158*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>3.0091286016689679E-3</v>
       </c>
     </row>
@@ -17528,15 +17549,15 @@
         <v>Aa1</v>
       </c>
       <c r="D159" s="27">
-        <f>VLOOKUP(C159,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E159" s="27">
-        <f>$E$3+F159</f>
+        <f t="shared" si="22"/>
         <v>4.6162323612253107E-2</v>
       </c>
       <c r="F159" s="26">
-        <f>IF($E$4="Yes",D159*$E$5,D159)</f>
+        <f t="shared" si="23"/>
         <v>4.0623236122531072E-3</v>
       </c>
       <c r="G159" s="25">
@@ -17544,11 +17565,11 @@
         <v>3.3E-3</v>
       </c>
       <c r="H159" s="26">
-        <f>IF(I159="NA","NA",$E$3+I159)</f>
+        <f t="shared" si="24"/>
         <v>4.7065062192753797E-2</v>
       </c>
       <c r="I159" s="31">
-        <f>IF(G159="NA","NA",G159*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>4.9650621927537974E-3</v>
       </c>
     </row>
@@ -17566,15 +17587,15 @@
         <v>Baa1</v>
       </c>
       <c r="D160" s="27">
-        <f>VLOOKUP(C160,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>1.5716260536563685E-2</v>
       </c>
       <c r="E160" s="27">
-        <f>$E$3+F160</f>
+        <f t="shared" si="22"/>
         <v>6.5746124545927528E-2</v>
       </c>
       <c r="F160" s="26">
-        <f>IF($E$4="Yes",D160*$E$5,D160)</f>
+        <f t="shared" si="23"/>
         <v>2.3646124545927533E-2</v>
       </c>
       <c r="G160" s="25">
@@ -17582,11 +17603,11 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H160" s="24">
-        <f>IF(I160="NA","NA",$E$3+I160)</f>
+        <f t="shared" si="24"/>
         <v>5.7446555868511738E-2</v>
       </c>
       <c r="I160" s="23">
-        <f>IF(G160="NA","NA",G160*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>1.5346555868511738E-2</v>
       </c>
     </row>
@@ -17604,15 +17625,15 @@
         <v>Ba3</v>
       </c>
       <c r="D161" s="27">
-        <f>VLOOKUP(C161,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>3.5361586207268286E-2</v>
       </c>
       <c r="E161" s="27">
-        <f>$E$3+F161</f>
+        <f t="shared" si="22"/>
         <v>9.5303780228336937E-2</v>
       </c>
       <c r="F161" s="26">
-        <f>IF($E$4="Yes",D161*$E$5,D161)</f>
+        <f t="shared" si="23"/>
         <v>5.3203780228336939E-2</v>
       </c>
       <c r="G161" s="25" t="e">
@@ -17620,11 +17641,11 @@
         <v>#N/A</v>
       </c>
       <c r="H161" s="24" t="e">
-        <f>IF(I161="NA","NA",$E$3+I161)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I161" s="23" t="e">
-        <f>IF(G161="NA","NA",G161*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17642,15 +17663,15 @@
         <v>C</v>
       </c>
       <c r="D162" s="27">
-        <f>VLOOKUP(C162,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E162" s="27">
-        <f>$E$3+F162</f>
+        <f t="shared" si="22"/>
         <v>0.30539875264603467</v>
       </c>
       <c r="F162" s="26">
-        <f>IF($E$4="Yes",D162*$E$5,D162)</f>
+        <f t="shared" si="23"/>
         <v>0.26329875264603469</v>
       </c>
       <c r="G162" s="25" t="str">
@@ -17658,11 +17679,11 @@
         <v>NA</v>
       </c>
       <c r="H162" s="24" t="str">
-        <f>IF(I162="NA","NA",$E$3+I162)</f>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="I162" s="23" t="str">
-        <f>IF(G162="NA","NA",G162*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
     </row>
@@ -17680,15 +17701,15 @@
         <v>Ba2</v>
       </c>
       <c r="D163" s="27">
-        <f>VLOOKUP(C163,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>2.9583549245296346E-2</v>
       </c>
       <c r="E163" s="27">
-        <f>$E$3+F163</f>
+        <f t="shared" si="22"/>
         <v>8.6610352086451819E-2</v>
       </c>
       <c r="F163" s="26">
-        <f>IF($E$4="Yes",D163*$E$5,D163)</f>
+        <f t="shared" si="23"/>
         <v>4.4510352086451821E-2</v>
       </c>
       <c r="G163" s="25">
@@ -17696,11 +17717,11 @@
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="H163" s="24">
-        <f>IF(I163="NA","NA",$E$3+I163)</f>
+        <f t="shared" si="24"/>
         <v>6.3163900211682777E-2</v>
       </c>
       <c r="I163" s="23">
-        <f>IF(G163="NA","NA",G163*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>2.1063900211682775E-2</v>
       </c>
     </row>
@@ -17718,15 +17739,15 @@
         <v>Caa2</v>
       </c>
       <c r="D164" s="27">
-        <f>VLOOKUP(C164,$J$9:$K$31,2,FALSE)/10000</f>
+        <f t="shared" si="21"/>
         <v>8.851952625741015E-2</v>
       </c>
       <c r="E164" s="27">
-        <f>$E$3+F164</f>
+        <f t="shared" si="22"/>
         <v>0.17528331913368006</v>
       </c>
       <c r="F164" s="26">
-        <f>IF($E$4="Yes",D164*$E$5,D164)</f>
+        <f t="shared" si="23"/>
         <v>0.13318331913368006</v>
       </c>
       <c r="G164" s="25" t="str">
@@ -17734,22 +17755,22 @@
         <v>NA</v>
       </c>
       <c r="H164" s="24" t="str">
-        <f>IF(I164="NA","NA",$E$3+I164)</f>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="I164" s="23" t="str">
-        <f>IF(G164="NA","NA",G164*$E$5)</f>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.75">
-      <c r="A165" s="22" t="s">
+      <c r="A165" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -18532,16 +18553,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6968C03E-4F52-4F20-9FA0-41C0B1E396FE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -18549,7 +18570,7 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="53">
+      <c r="B1" s="52">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
@@ -18557,7 +18578,7 @@
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="52">
         <f>B1-B4</f>
         <v>4.82E-2</v>
       </c>
@@ -18566,7 +18587,7 @@
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <f>'Beta calculation'!F2</f>
         <v>0.88044934984724577</v>
       </c>
@@ -18575,7 +18596,7 @@
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="52">
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
@@ -18583,17 +18604,79 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="53">
-        <v>7.9699999999999993E-2</v>
+      <c r="B5" s="52">
+        <f>'ERPs by country'!H127</f>
+        <v>7.971410752086211E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="51">
         <f>B2+B3*B5</f>
-        <v>0.11837181318282547</v>
+        <v>0.11838423414039648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="52">
+        <v>9.0899999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1">
+        <v>446943574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1">
+        <f>162061171+46737115+6601664+18176857</f>
+        <v>233576807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B8+B9</f>
+        <v>680520381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B9/B10</f>
+        <v>0.3432326400816495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B8/B10</f>
+        <v>0.65676735991835045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="52">
+        <f>B12*B6+B11*B7*0.84</f>
+        <v>0.10395877237841847</v>
       </c>
     </row>
   </sheetData>
